--- a/data/ManyBabies Individual Lab Participants Data.xlsx
+++ b/data/ManyBabies Individual Lab Participants Data.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krista/Repos/ManyBabies1/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7C1CBF-4DDF-F245-8B82-B0630D396C96}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Template" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Variable explanations" sheetId="2" r:id="rId4"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Variable explanations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="181">
   <si>
     <t>lab</t>
   </si>
@@ -509,10 +518,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>two kinds</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> of mising data:</t>
     </r>
   </si>
@@ -527,10 +543,17 @@
       <rPr>
         <b/>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>doesn't make sense</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> for a participant, such as the reason for an error when </t>
     </r>
   </si>
@@ -548,16 +571,25 @@
       <rPr>
         <b/>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>do not know</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>the value of this column for a participant, either because it is not</t>
     </r>
   </si>
@@ -569,37 +601,78 @@
   </si>
   <si>
     <t>u-northern-mars is a lab that is not collecting info about race/ethnicity</t>
+  </si>
+  <si>
+    <t>Optional_Visits</t>
+  </si>
+  <si>
+    <t>Optional_Last_Feed_Min</t>
+  </si>
+  <si>
+    <t>Optional_Last_Sleep_Min</t>
+  </si>
+  <si>
+    <t>Optional_ToD</t>
+  </si>
+  <si>
+    <t>Optional_Season</t>
+  </si>
+  <si>
+    <t>Optional_TermTime</t>
+  </si>
+  <si>
+    <t>Optional_PopNum</t>
+  </si>
+  <si>
+    <t>Optional_PopKm2</t>
+  </si>
+  <si>
+    <t>Optional_Household_Size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -607,7 +680,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -623,149 +696,458 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:BF968"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.29"/>
-    <col customWidth="1" min="4" max="4" width="15.29"/>
-    <col customWidth="1" min="5" max="5" width="8.86"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
-    <col customWidth="1" min="8" max="8" width="31.0"/>
-    <col customWidth="1" min="9" max="9" width="42.86"/>
-    <col customWidth="1" min="14" max="19" width="10.71"/>
-    <col customWidth="1" min="20" max="20" width="20.0"/>
-    <col customWidth="1" min="21" max="21" width="16.14"/>
-    <col customWidth="1" min="22" max="22" width="10.71"/>
-    <col customWidth="1" min="23" max="23" width="16.14"/>
-    <col customWidth="1" min="24" max="24" width="10.71"/>
-    <col customWidth="1" min="25" max="25" width="19.86"/>
-    <col customWidth="1" min="26" max="28" width="10.71"/>
-    <col customWidth="1" min="29" max="29" width="8.71"/>
-    <col customWidth="1" min="30" max="30" width="14.71"/>
-    <col customWidth="1" min="31" max="31" width="10.71"/>
-    <col customWidth="1" min="32" max="32" width="18.71"/>
-    <col customWidth="1" min="33" max="33" width="32.0"/>
-    <col customWidth="1" min="34" max="47" width="10.71"/>
-    <col customWidth="1" min="48" max="48" width="15.14"/>
-    <col customWidth="1" min="49" max="49" width="17.0"/>
-    <col customWidth="1" min="50" max="50" width="74.43"/>
-    <col customWidth="1" min="58" max="58" width="22.43"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="42.83203125" customWidth="1"/>
+    <col min="14" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
+    <col min="26" max="28" width="10.6640625" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" customWidth="1"/>
+    <col min="33" max="33" width="32" customWidth="1"/>
+    <col min="34" max="47" width="10.6640625" customWidth="1"/>
+    <col min="48" max="48" width="15.1640625" customWidth="1"/>
+    <col min="49" max="49" width="17" customWidth="1"/>
+    <col min="50" max="50" width="74.5" customWidth="1"/>
+    <col min="58" max="58" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,17 +1295,35 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-    </row>
-    <row r="2">
+      <c r="AX1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -937,10 +1337,10 @@
         <v>52</v>
       </c>
       <c r="E2" s="1">
-        <v>636.0</v>
+        <v>636</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>53</v>
@@ -959,7 +1359,7 @@
         <v>57</v>
       </c>
       <c r="M2" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>58</v>
@@ -983,7 +1383,7 @@
         <v>59</v>
       </c>
       <c r="U2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>60</v>
@@ -995,13 +1395,13 @@
         <v>62</v>
       </c>
       <c r="Y2" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA2" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>63</v>
@@ -1028,7 +1428,7 @@
         <v>58</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>62</v>
@@ -1079,7 +1479,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1093,10 +1493,10 @@
         <v>69</v>
       </c>
       <c r="E3" s="1">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="F3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>53</v>
@@ -1115,13 +1515,13 @@
         <v>57</v>
       </c>
       <c r="M3" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>58</v>
@@ -1139,7 +1539,7 @@
         <v>59</v>
       </c>
       <c r="U3" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>62</v>
@@ -1151,13 +1551,13 @@
         <v>62</v>
       </c>
       <c r="Y3" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA3" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>63</v>
@@ -1233,7 +1633,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1247,10 +1647,10 @@
         <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>649.0</v>
+        <v>649</v>
       </c>
       <c r="F4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>53</v>
@@ -1269,7 +1669,7 @@
         <v>57</v>
       </c>
       <c r="M4" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>58</v>
@@ -1293,7 +1693,7 @@
         <v>73</v>
       </c>
       <c r="U4" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>60</v>
@@ -1305,13 +1705,13 @@
         <v>62</v>
       </c>
       <c r="Y4" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA4" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>63</v>
@@ -1338,25 +1738,25 @@
         <v>58</v>
       </c>
       <c r="AJ4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AL4" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AN4" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>62</v>
@@ -1389,7 +1789,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1403,10 +1803,10 @@
         <v>69</v>
       </c>
       <c r="E5" s="1">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="F5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>53</v>
@@ -1425,7 +1825,7 @@
         <v>57</v>
       </c>
       <c r="M5" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>58</v>
@@ -1449,7 +1849,7 @@
         <v>73</v>
       </c>
       <c r="U5" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>62</v>
@@ -1461,13 +1861,13 @@
         <v>60</v>
       </c>
       <c r="Y5" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA5" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>63</v>
@@ -1545,7 +1945,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1559,10 +1959,10 @@
         <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>96</v>
@@ -1581,7 +1981,7 @@
         <v>57</v>
       </c>
       <c r="M6" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>58</v>
@@ -1605,7 +2005,7 @@
         <v>73</v>
       </c>
       <c r="U6" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>60</v>
@@ -1617,13 +2017,13 @@
         <v>62</v>
       </c>
       <c r="Y6" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA6" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>63</v>
@@ -1650,7 +2050,7 @@
         <v>58</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>62</v>
@@ -1701,7 +2101,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" ht="20.25" customHeight="1">
+    <row r="7" spans="1:58" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1715,10 +2115,10 @@
         <v>69</v>
       </c>
       <c r="E7" s="1">
-        <v>474.0</v>
+        <v>474</v>
       </c>
       <c r="F7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>53</v>
@@ -1737,7 +2137,7 @@
         <v>57</v>
       </c>
       <c r="M7" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>58</v>
@@ -1773,13 +2173,13 @@
         <v>62</v>
       </c>
       <c r="Y7" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA7" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>63</v>
@@ -1857,7 +2257,7 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1871,10 +2271,10 @@
         <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="F8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>53</v>
@@ -1893,13 +2293,13 @@
         <v>120</v>
       </c>
       <c r="M8" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O8" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>58</v>
@@ -1917,7 +2317,7 @@
         <v>73</v>
       </c>
       <c r="U8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>62</v>
@@ -1929,13 +2329,13 @@
         <v>60</v>
       </c>
       <c r="Y8" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA8" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>63</v>
@@ -2013,7 +2413,7 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2027,10 +2427,10 @@
         <v>135</v>
       </c>
       <c r="E9" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="F9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>96</v>
@@ -2051,13 +2451,13 @@
         <v>57</v>
       </c>
       <c r="M9" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>141</v>
       </c>
       <c r="O9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>58</v>
@@ -2075,7 +2475,7 @@
         <v>73</v>
       </c>
       <c r="U9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>60</v>
@@ -2087,19 +2487,19 @@
         <v>60</v>
       </c>
       <c r="Y9" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA9" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AC9" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>64</v>
@@ -2171,7 +2571,7 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -2185,10 +2585,10 @@
         <v>135</v>
       </c>
       <c r="E10" s="1">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>96</v>
@@ -2209,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="M10" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>58</v>
@@ -2233,7 +2633,7 @@
         <v>73</v>
       </c>
       <c r="U10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>60</v>
@@ -2245,19 +2645,19 @@
         <v>60</v>
       </c>
       <c r="Y10" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA10" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AC10" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>71</v>
@@ -2278,7 +2678,7 @@
         <v>58</v>
       </c>
       <c r="AJ10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>60</v>
@@ -2329,7 +2729,7 @@
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2343,10 +2743,10 @@
         <v>135</v>
       </c>
       <c r="E11" s="1">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="F11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>96</v>
@@ -2365,13 +2765,13 @@
         <v>57</v>
       </c>
       <c r="M11" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>154</v>
       </c>
       <c r="O11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>58</v>
@@ -2401,13 +2801,13 @@
         <v>62</v>
       </c>
       <c r="Y11" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA11" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>63</v>
@@ -2485,7 +2885,7 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2499,10 +2899,10 @@
         <v>135</v>
       </c>
       <c r="E12" s="1">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="F12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>96</v>
@@ -2521,7 +2921,7 @@
         <v>57</v>
       </c>
       <c r="M12" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>58</v>
@@ -2545,7 +2945,7 @@
         <v>73</v>
       </c>
       <c r="U12" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>62</v>
@@ -2557,13 +2957,13 @@
         <v>62</v>
       </c>
       <c r="Y12" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA12" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>63</v>
@@ -2590,7 +2990,7 @@
         <v>58</v>
       </c>
       <c r="AJ12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>62</v>
@@ -2632,7 +3032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2646,10 +3046,10 @@
         <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="F13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>96</v>
@@ -2668,7 +3068,7 @@
         <v>57</v>
       </c>
       <c r="M13" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>58</v>
@@ -2692,7 +3092,7 @@
         <v>73</v>
       </c>
       <c r="U13" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>60</v>
@@ -2704,13 +3104,13 @@
         <v>62</v>
       </c>
       <c r="Y13" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA13" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>63</v>
@@ -2779,7 +3179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2793,10 +3193,10 @@
         <v>69</v>
       </c>
       <c r="E14" s="1">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="F14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>96</v>
@@ -2815,7 +3215,7 @@
         <v>57</v>
       </c>
       <c r="M14" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>58</v>
@@ -2851,13 +3251,13 @@
         <v>62</v>
       </c>
       <c r="Y14" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA14" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>63</v>
@@ -2926,7 +3326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2975,14 +3375,14 @@
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:58" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>159</v>
       </c>
       <c r="Y16" s="15"/>
       <c r="AA16" s="15"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -2990,7 +3390,7 @@
       <c r="AA17" s="15"/>
       <c r="AW17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
@@ -2999,14 +3399,14 @@
       <c r="AS18" s="9"/>
       <c r="AW18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="Y19" s="15"/>
       <c r="AA19" s="15"/>
       <c r="AS19" s="9"/>
       <c r="AW19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -3015,7 +3415,7 @@
       <c r="AS20" s="9"/>
       <c r="AW20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>163</v>
       </c>
@@ -3024,13 +3424,13 @@
       <c r="AS21" s="9"/>
       <c r="AW21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:49" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="Y22" s="15"/>
       <c r="AA22" s="15"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -3041,7 +3441,7 @@
       <c r="AA23" s="15"/>
       <c r="AW23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:49" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="10" t="s">
         <v>166</v>
@@ -3049,7 +3449,7 @@
       <c r="Y24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:49" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -3060,7 +3460,7 @@
       <c r="AA25" s="15"/>
       <c r="AW25" s="16"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>169</v>
       </c>
@@ -3068,7 +3468,7 @@
       <c r="AA26" s="15"/>
       <c r="AW26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>170</v>
       </c>
@@ -3076,7 +3476,7 @@
       <c r="AA27" s="15"/>
       <c r="AW27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="B28" s="10" t="s">
         <v>171</v>
       </c>
@@ -3084,3795 +3484,3795 @@
       <c r="AA28" s="15"/>
       <c r="AW28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:49" ht="13" x14ac:dyDescent="0.15">
       <c r="Y29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="Y30" s="15"/>
       <c r="AA30" s="15"/>
       <c r="AW30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:49" ht="14" x14ac:dyDescent="0.15">
       <c r="Y31" s="15"/>
       <c r="AA31" s="15"/>
       <c r="AW31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:49" ht="13" x14ac:dyDescent="0.15">
       <c r="Y32" s="15"/>
       <c r="AA32" s="15"/>
     </row>
-    <row r="33">
+    <row r="33" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y33" s="15"/>
       <c r="AA33" s="15"/>
     </row>
-    <row r="34">
+    <row r="34" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y34" s="15"/>
       <c r="AA34" s="15"/>
     </row>
-    <row r="35">
+    <row r="35" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y35" s="15"/>
       <c r="AA35" s="15"/>
     </row>
-    <row r="36">
+    <row r="36" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
-    <row r="37">
+    <row r="37" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y37" s="15"/>
       <c r="AA37" s="15"/>
     </row>
-    <row r="38">
+    <row r="38" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y38" s="15"/>
       <c r="AA38" s="15"/>
     </row>
-    <row r="39">
+    <row r="39" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y39" s="15"/>
       <c r="AA39" s="15"/>
     </row>
-    <row r="40">
+    <row r="40" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y40" s="15"/>
       <c r="AA40" s="15"/>
     </row>
-    <row r="41">
+    <row r="41" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y41" s="15"/>
       <c r="AA41" s="15"/>
     </row>
-    <row r="42">
+    <row r="42" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y42" s="15"/>
       <c r="AA42" s="15"/>
     </row>
-    <row r="43">
+    <row r="43" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y43" s="15"/>
       <c r="AA43" s="15"/>
     </row>
-    <row r="44">
+    <row r="44" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y44" s="15"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45">
+    <row r="45" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y45" s="15"/>
       <c r="AA45" s="15"/>
     </row>
-    <row r="46">
+    <row r="46" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y46" s="15"/>
       <c r="AA46" s="15"/>
     </row>
-    <row r="47">
+    <row r="47" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y47" s="15"/>
       <c r="AA47" s="15"/>
     </row>
-    <row r="48">
+    <row r="48" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y48" s="15"/>
       <c r="AA48" s="15"/>
     </row>
-    <row r="49">
+    <row r="49" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y49" s="15"/>
       <c r="AA49" s="15"/>
     </row>
-    <row r="50">
+    <row r="50" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y50" s="15"/>
       <c r="AA50" s="15"/>
     </row>
-    <row r="51">
+    <row r="51" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y51" s="15"/>
       <c r="AA51" s="15"/>
     </row>
-    <row r="52">
+    <row r="52" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y52" s="15"/>
       <c r="AA52" s="15"/>
     </row>
-    <row r="53">
+    <row r="53" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y53" s="15"/>
       <c r="AA53" s="15"/>
     </row>
-    <row r="54">
+    <row r="54" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y54" s="15"/>
       <c r="AA54" s="15"/>
     </row>
-    <row r="55">
+    <row r="55" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y55" s="15"/>
       <c r="AA55" s="15"/>
     </row>
-    <row r="56">
+    <row r="56" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y56" s="15"/>
       <c r="AA56" s="15"/>
     </row>
-    <row r="57">
+    <row r="57" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y57" s="15"/>
       <c r="AA57" s="15"/>
     </row>
-    <row r="58">
+    <row r="58" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y58" s="15"/>
       <c r="AA58" s="15"/>
     </row>
-    <row r="59">
+    <row r="59" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y59" s="15"/>
       <c r="AA59" s="15"/>
     </row>
-    <row r="60">
+    <row r="60" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y60" s="15"/>
       <c r="AA60" s="15"/>
     </row>
-    <row r="61">
+    <row r="61" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y61" s="15"/>
       <c r="AA61" s="15"/>
     </row>
-    <row r="62">
+    <row r="62" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y62" s="15"/>
       <c r="AA62" s="15"/>
     </row>
-    <row r="63">
+    <row r="63" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y63" s="15"/>
       <c r="AA63" s="15"/>
     </row>
-    <row r="64">
+    <row r="64" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y64" s="15"/>
       <c r="AA64" s="15"/>
     </row>
-    <row r="65">
+    <row r="65" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y65" s="15"/>
       <c r="AA65" s="15"/>
     </row>
-    <row r="66">
+    <row r="66" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y66" s="15"/>
       <c r="AA66" s="15"/>
     </row>
-    <row r="67">
+    <row r="67" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y67" s="15"/>
       <c r="AA67" s="15"/>
     </row>
-    <row r="68">
+    <row r="68" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y68" s="15"/>
       <c r="AA68" s="15"/>
     </row>
-    <row r="69">
+    <row r="69" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y69" s="15"/>
       <c r="AA69" s="15"/>
     </row>
-    <row r="70">
+    <row r="70" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y70" s="15"/>
       <c r="AA70" s="15"/>
     </row>
-    <row r="71">
+    <row r="71" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y71" s="15"/>
       <c r="AA71" s="15"/>
     </row>
-    <row r="72">
+    <row r="72" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y72" s="15"/>
       <c r="AA72" s="15"/>
     </row>
-    <row r="73">
+    <row r="73" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y73" s="15"/>
       <c r="AA73" s="15"/>
     </row>
-    <row r="74">
+    <row r="74" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y74" s="15"/>
       <c r="AA74" s="15"/>
     </row>
-    <row r="75">
+    <row r="75" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y75" s="15"/>
       <c r="AA75" s="15"/>
     </row>
-    <row r="76">
+    <row r="76" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y76" s="15"/>
       <c r="AA76" s="15"/>
     </row>
-    <row r="77">
+    <row r="77" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y77" s="15"/>
       <c r="AA77" s="15"/>
     </row>
-    <row r="78">
+    <row r="78" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y78" s="15"/>
       <c r="AA78" s="15"/>
     </row>
-    <row r="79">
+    <row r="79" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y79" s="15"/>
       <c r="AA79" s="15"/>
     </row>
-    <row r="80">
+    <row r="80" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y80" s="15"/>
       <c r="AA80" s="15"/>
     </row>
-    <row r="81">
+    <row r="81" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y81" s="15"/>
       <c r="AA81" s="15"/>
     </row>
-    <row r="82">
+    <row r="82" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y82" s="15"/>
       <c r="AA82" s="15"/>
     </row>
-    <row r="83">
+    <row r="83" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y83" s="15"/>
       <c r="AA83" s="15"/>
     </row>
-    <row r="84">
+    <row r="84" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y84" s="15"/>
       <c r="AA84" s="15"/>
     </row>
-    <row r="85">
+    <row r="85" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y85" s="15"/>
       <c r="AA85" s="15"/>
     </row>
-    <row r="86">
+    <row r="86" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y86" s="15"/>
       <c r="AA86" s="15"/>
     </row>
-    <row r="87">
+    <row r="87" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y87" s="15"/>
       <c r="AA87" s="15"/>
     </row>
-    <row r="88">
+    <row r="88" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y88" s="15"/>
       <c r="AA88" s="15"/>
     </row>
-    <row r="89">
+    <row r="89" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y89" s="15"/>
       <c r="AA89" s="15"/>
     </row>
-    <row r="90">
+    <row r="90" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y90" s="15"/>
       <c r="AA90" s="15"/>
     </row>
-    <row r="91">
+    <row r="91" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y91" s="15"/>
       <c r="AA91" s="15"/>
     </row>
-    <row r="92">
+    <row r="92" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y92" s="15"/>
       <c r="AA92" s="15"/>
     </row>
-    <row r="93">
+    <row r="93" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y93" s="15"/>
       <c r="AA93" s="15"/>
     </row>
-    <row r="94">
+    <row r="94" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y94" s="15"/>
       <c r="AA94" s="15"/>
     </row>
-    <row r="95">
+    <row r="95" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y95" s="15"/>
       <c r="AA95" s="15"/>
     </row>
-    <row r="96">
+    <row r="96" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y96" s="15"/>
       <c r="AA96" s="15"/>
     </row>
-    <row r="97">
+    <row r="97" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y97" s="15"/>
       <c r="AA97" s="15"/>
     </row>
-    <row r="98">
+    <row r="98" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y98" s="15"/>
       <c r="AA98" s="15"/>
     </row>
-    <row r="99">
+    <row r="99" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y99" s="15"/>
       <c r="AA99" s="15"/>
     </row>
-    <row r="100">
+    <row r="100" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y100" s="15"/>
       <c r="AA100" s="15"/>
     </row>
-    <row r="101">
+    <row r="101" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y101" s="15"/>
       <c r="AA101" s="15"/>
     </row>
-    <row r="102">
+    <row r="102" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y102" s="15"/>
       <c r="AA102" s="15"/>
     </row>
-    <row r="103">
+    <row r="103" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y103" s="15"/>
       <c r="AA103" s="15"/>
     </row>
-    <row r="104">
+    <row r="104" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y104" s="15"/>
       <c r="AA104" s="15"/>
     </row>
-    <row r="105">
+    <row r="105" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y105" s="15"/>
       <c r="AA105" s="15"/>
     </row>
-    <row r="106">
+    <row r="106" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y106" s="15"/>
       <c r="AA106" s="15"/>
     </row>
-    <row r="107">
+    <row r="107" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y107" s="15"/>
       <c r="AA107" s="15"/>
     </row>
-    <row r="108">
+    <row r="108" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y108" s="15"/>
       <c r="AA108" s="15"/>
     </row>
-    <row r="109">
+    <row r="109" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y109" s="15"/>
       <c r="AA109" s="15"/>
     </row>
-    <row r="110">
+    <row r="110" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y110" s="15"/>
       <c r="AA110" s="15"/>
     </row>
-    <row r="111">
+    <row r="111" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y111" s="15"/>
       <c r="AA111" s="15"/>
     </row>
-    <row r="112">
+    <row r="112" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y112" s="15"/>
       <c r="AA112" s="15"/>
     </row>
-    <row r="113">
+    <row r="113" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y113" s="15"/>
       <c r="AA113" s="15"/>
     </row>
-    <row r="114">
+    <row r="114" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y114" s="15"/>
       <c r="AA114" s="15"/>
     </row>
-    <row r="115">
+    <row r="115" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y115" s="15"/>
       <c r="AA115" s="15"/>
     </row>
-    <row r="116">
+    <row r="116" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y116" s="15"/>
       <c r="AA116" s="15"/>
     </row>
-    <row r="117">
+    <row r="117" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y117" s="15"/>
       <c r="AA117" s="15"/>
     </row>
-    <row r="118">
+    <row r="118" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y118" s="15"/>
       <c r="AA118" s="15"/>
     </row>
-    <row r="119">
+    <row r="119" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y119" s="15"/>
       <c r="AA119" s="15"/>
     </row>
-    <row r="120">
+    <row r="120" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y120" s="15"/>
       <c r="AA120" s="15"/>
     </row>
-    <row r="121">
+    <row r="121" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y121" s="15"/>
       <c r="AA121" s="15"/>
     </row>
-    <row r="122">
+    <row r="122" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y122" s="15"/>
       <c r="AA122" s="15"/>
     </row>
-    <row r="123">
+    <row r="123" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y123" s="15"/>
       <c r="AA123" s="15"/>
     </row>
-    <row r="124">
+    <row r="124" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y124" s="15"/>
       <c r="AA124" s="15"/>
     </row>
-    <row r="125">
+    <row r="125" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y125" s="15"/>
       <c r="AA125" s="15"/>
     </row>
-    <row r="126">
+    <row r="126" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y126" s="15"/>
       <c r="AA126" s="15"/>
     </row>
-    <row r="127">
+    <row r="127" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y127" s="15"/>
       <c r="AA127" s="15"/>
     </row>
-    <row r="128">
+    <row r="128" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y128" s="15"/>
       <c r="AA128" s="15"/>
     </row>
-    <row r="129">
+    <row r="129" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y129" s="15"/>
       <c r="AA129" s="15"/>
     </row>
-    <row r="130">
+    <row r="130" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y130" s="15"/>
       <c r="AA130" s="15"/>
     </row>
-    <row r="131">
+    <row r="131" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y131" s="15"/>
       <c r="AA131" s="15"/>
     </row>
-    <row r="132">
+    <row r="132" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y132" s="15"/>
       <c r="AA132" s="15"/>
     </row>
-    <row r="133">
+    <row r="133" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y133" s="15"/>
       <c r="AA133" s="15"/>
     </row>
-    <row r="134">
+    <row r="134" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y134" s="15"/>
       <c r="AA134" s="15"/>
     </row>
-    <row r="135">
+    <row r="135" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y135" s="15"/>
       <c r="AA135" s="15"/>
     </row>
-    <row r="136">
+    <row r="136" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y136" s="15"/>
       <c r="AA136" s="15"/>
     </row>
-    <row r="137">
+    <row r="137" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y137" s="15"/>
       <c r="AA137" s="15"/>
     </row>
-    <row r="138">
+    <row r="138" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y138" s="15"/>
       <c r="AA138" s="15"/>
     </row>
-    <row r="139">
+    <row r="139" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y139" s="15"/>
       <c r="AA139" s="15"/>
     </row>
-    <row r="140">
+    <row r="140" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y140" s="15"/>
       <c r="AA140" s="15"/>
     </row>
-    <row r="141">
+    <row r="141" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y141" s="15"/>
       <c r="AA141" s="15"/>
     </row>
-    <row r="142">
+    <row r="142" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y142" s="15"/>
       <c r="AA142" s="15"/>
     </row>
-    <row r="143">
+    <row r="143" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y143" s="15"/>
       <c r="AA143" s="15"/>
     </row>
-    <row r="144">
+    <row r="144" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y144" s="15"/>
       <c r="AA144" s="15"/>
     </row>
-    <row r="145">
+    <row r="145" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y145" s="15"/>
       <c r="AA145" s="15"/>
     </row>
-    <row r="146">
+    <row r="146" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y146" s="15"/>
       <c r="AA146" s="15"/>
     </row>
-    <row r="147">
+    <row r="147" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y147" s="15"/>
       <c r="AA147" s="15"/>
     </row>
-    <row r="148">
+    <row r="148" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y148" s="15"/>
       <c r="AA148" s="15"/>
     </row>
-    <row r="149">
+    <row r="149" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y149" s="15"/>
       <c r="AA149" s="15"/>
     </row>
-    <row r="150">
+    <row r="150" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y150" s="15"/>
       <c r="AA150" s="15"/>
     </row>
-    <row r="151">
+    <row r="151" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y151" s="15"/>
       <c r="AA151" s="15"/>
     </row>
-    <row r="152">
+    <row r="152" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y152" s="15"/>
       <c r="AA152" s="15"/>
     </row>
-    <row r="153">
+    <row r="153" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y153" s="15"/>
       <c r="AA153" s="15"/>
     </row>
-    <row r="154">
+    <row r="154" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y154" s="15"/>
       <c r="AA154" s="15"/>
     </row>
-    <row r="155">
+    <row r="155" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y155" s="15"/>
       <c r="AA155" s="15"/>
     </row>
-    <row r="156">
+    <row r="156" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y156" s="15"/>
       <c r="AA156" s="15"/>
     </row>
-    <row r="157">
+    <row r="157" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y157" s="15"/>
       <c r="AA157" s="15"/>
     </row>
-    <row r="158">
+    <row r="158" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y158" s="15"/>
       <c r="AA158" s="15"/>
     </row>
-    <row r="159">
+    <row r="159" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y159" s="15"/>
       <c r="AA159" s="15"/>
     </row>
-    <row r="160">
+    <row r="160" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y160" s="15"/>
       <c r="AA160" s="15"/>
     </row>
-    <row r="161">
+    <row r="161" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y161" s="15"/>
       <c r="AA161" s="15"/>
     </row>
-    <row r="162">
+    <row r="162" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y162" s="15"/>
       <c r="AA162" s="15"/>
     </row>
-    <row r="163">
+    <row r="163" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y163" s="15"/>
       <c r="AA163" s="15"/>
     </row>
-    <row r="164">
+    <row r="164" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y164" s="15"/>
       <c r="AA164" s="15"/>
     </row>
-    <row r="165">
+    <row r="165" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y165" s="15"/>
       <c r="AA165" s="15"/>
     </row>
-    <row r="166">
+    <row r="166" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y166" s="15"/>
       <c r="AA166" s="15"/>
     </row>
-    <row r="167">
+    <row r="167" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y167" s="15"/>
       <c r="AA167" s="15"/>
     </row>
-    <row r="168">
+    <row r="168" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y168" s="15"/>
       <c r="AA168" s="15"/>
     </row>
-    <row r="169">
+    <row r="169" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y169" s="15"/>
       <c r="AA169" s="15"/>
     </row>
-    <row r="170">
+    <row r="170" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y170" s="15"/>
       <c r="AA170" s="15"/>
     </row>
-    <row r="171">
+    <row r="171" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y171" s="15"/>
       <c r="AA171" s="15"/>
     </row>
-    <row r="172">
+    <row r="172" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y172" s="15"/>
       <c r="AA172" s="15"/>
     </row>
-    <row r="173">
+    <row r="173" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y173" s="15"/>
       <c r="AA173" s="15"/>
     </row>
-    <row r="174">
+    <row r="174" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y174" s="15"/>
       <c r="AA174" s="15"/>
     </row>
-    <row r="175">
+    <row r="175" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y175" s="15"/>
       <c r="AA175" s="15"/>
     </row>
-    <row r="176">
+    <row r="176" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y176" s="15"/>
       <c r="AA176" s="15"/>
     </row>
-    <row r="177">
+    <row r="177" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y177" s="15"/>
       <c r="AA177" s="15"/>
     </row>
-    <row r="178">
+    <row r="178" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y178" s="15"/>
       <c r="AA178" s="15"/>
     </row>
-    <row r="179">
+    <row r="179" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y179" s="15"/>
       <c r="AA179" s="15"/>
     </row>
-    <row r="180">
+    <row r="180" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y180" s="15"/>
       <c r="AA180" s="15"/>
     </row>
-    <row r="181">
+    <row r="181" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y181" s="15"/>
       <c r="AA181" s="15"/>
     </row>
-    <row r="182">
+    <row r="182" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y182" s="15"/>
       <c r="AA182" s="15"/>
     </row>
-    <row r="183">
+    <row r="183" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y183" s="15"/>
       <c r="AA183" s="15"/>
     </row>
-    <row r="184">
+    <row r="184" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y184" s="15"/>
       <c r="AA184" s="15"/>
     </row>
-    <row r="185">
+    <row r="185" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y185" s="15"/>
       <c r="AA185" s="15"/>
     </row>
-    <row r="186">
+    <row r="186" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y186" s="15"/>
       <c r="AA186" s="15"/>
     </row>
-    <row r="187">
+    <row r="187" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y187" s="15"/>
       <c r="AA187" s="15"/>
     </row>
-    <row r="188">
+    <row r="188" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y188" s="15"/>
       <c r="AA188" s="15"/>
     </row>
-    <row r="189">
+    <row r="189" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y189" s="15"/>
       <c r="AA189" s="15"/>
     </row>
-    <row r="190">
+    <row r="190" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y190" s="15"/>
       <c r="AA190" s="15"/>
     </row>
-    <row r="191">
+    <row r="191" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y191" s="15"/>
       <c r="AA191" s="15"/>
     </row>
-    <row r="192">
+    <row r="192" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y192" s="15"/>
       <c r="AA192" s="15"/>
     </row>
-    <row r="193">
+    <row r="193" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y193" s="15"/>
       <c r="AA193" s="15"/>
     </row>
-    <row r="194">
+    <row r="194" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y194" s="15"/>
       <c r="AA194" s="15"/>
     </row>
-    <row r="195">
+    <row r="195" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y195" s="15"/>
       <c r="AA195" s="15"/>
     </row>
-    <row r="196">
+    <row r="196" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y196" s="15"/>
       <c r="AA196" s="15"/>
     </row>
-    <row r="197">
+    <row r="197" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y197" s="15"/>
       <c r="AA197" s="15"/>
     </row>
-    <row r="198">
+    <row r="198" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y198" s="15"/>
       <c r="AA198" s="15"/>
     </row>
-    <row r="199">
+    <row r="199" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y199" s="15"/>
       <c r="AA199" s="15"/>
     </row>
-    <row r="200">
+    <row r="200" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y200" s="15"/>
       <c r="AA200" s="15"/>
     </row>
-    <row r="201">
+    <row r="201" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y201" s="15"/>
       <c r="AA201" s="15"/>
     </row>
-    <row r="202">
+    <row r="202" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y202" s="15"/>
       <c r="AA202" s="15"/>
     </row>
-    <row r="203">
+    <row r="203" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y203" s="15"/>
       <c r="AA203" s="15"/>
     </row>
-    <row r="204">
+    <row r="204" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y204" s="15"/>
       <c r="AA204" s="15"/>
     </row>
-    <row r="205">
+    <row r="205" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y205" s="15"/>
       <c r="AA205" s="15"/>
     </row>
-    <row r="206">
+    <row r="206" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y206" s="15"/>
       <c r="AA206" s="15"/>
     </row>
-    <row r="207">
+    <row r="207" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y207" s="15"/>
       <c r="AA207" s="15"/>
     </row>
-    <row r="208">
+    <row r="208" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y208" s="15"/>
       <c r="AA208" s="15"/>
     </row>
-    <row r="209">
+    <row r="209" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y209" s="15"/>
       <c r="AA209" s="15"/>
     </row>
-    <row r="210">
+    <row r="210" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y210" s="15"/>
       <c r="AA210" s="15"/>
     </row>
-    <row r="211">
+    <row r="211" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y211" s="15"/>
       <c r="AA211" s="15"/>
     </row>
-    <row r="212">
+    <row r="212" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y212" s="15"/>
       <c r="AA212" s="15"/>
     </row>
-    <row r="213">
+    <row r="213" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y213" s="15"/>
       <c r="AA213" s="15"/>
     </row>
-    <row r="214">
+    <row r="214" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y214" s="15"/>
       <c r="AA214" s="15"/>
     </row>
-    <row r="215">
+    <row r="215" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y215" s="15"/>
       <c r="AA215" s="15"/>
     </row>
-    <row r="216">
+    <row r="216" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y216" s="15"/>
       <c r="AA216" s="15"/>
     </row>
-    <row r="217">
+    <row r="217" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y217" s="15"/>
       <c r="AA217" s="15"/>
     </row>
-    <row r="218">
+    <row r="218" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y218" s="15"/>
       <c r="AA218" s="15"/>
     </row>
-    <row r="219">
+    <row r="219" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y219" s="15"/>
       <c r="AA219" s="15"/>
     </row>
-    <row r="220">
+    <row r="220" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y220" s="15"/>
       <c r="AA220" s="15"/>
     </row>
-    <row r="221">
+    <row r="221" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y221" s="15"/>
       <c r="AA221" s="15"/>
     </row>
-    <row r="222">
+    <row r="222" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y222" s="15"/>
       <c r="AA222" s="15"/>
     </row>
-    <row r="223">
+    <row r="223" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y223" s="15"/>
       <c r="AA223" s="15"/>
     </row>
-    <row r="224">
+    <row r="224" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y224" s="15"/>
       <c r="AA224" s="15"/>
     </row>
-    <row r="225">
+    <row r="225" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y225" s="15"/>
       <c r="AA225" s="15"/>
     </row>
-    <row r="226">
+    <row r="226" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y226" s="15"/>
       <c r="AA226" s="15"/>
     </row>
-    <row r="227">
+    <row r="227" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y227" s="15"/>
       <c r="AA227" s="15"/>
     </row>
-    <row r="228">
+    <row r="228" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y228" s="15"/>
       <c r="AA228" s="15"/>
     </row>
-    <row r="229">
+    <row r="229" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y229" s="15"/>
       <c r="AA229" s="15"/>
     </row>
-    <row r="230">
+    <row r="230" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y230" s="15"/>
       <c r="AA230" s="15"/>
     </row>
-    <row r="231">
+    <row r="231" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y231" s="15"/>
       <c r="AA231" s="15"/>
     </row>
-    <row r="232">
+    <row r="232" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y232" s="15"/>
       <c r="AA232" s="15"/>
     </row>
-    <row r="233">
+    <row r="233" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y233" s="15"/>
       <c r="AA233" s="15"/>
     </row>
-    <row r="234">
+    <row r="234" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y234" s="15"/>
       <c r="AA234" s="15"/>
     </row>
-    <row r="235">
+    <row r="235" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y235" s="15"/>
       <c r="AA235" s="15"/>
     </row>
-    <row r="236">
+    <row r="236" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y236" s="15"/>
       <c r="AA236" s="15"/>
     </row>
-    <row r="237">
+    <row r="237" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y237" s="15"/>
       <c r="AA237" s="15"/>
     </row>
-    <row r="238">
+    <row r="238" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y238" s="15"/>
       <c r="AA238" s="15"/>
     </row>
-    <row r="239">
+    <row r="239" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y239" s="15"/>
       <c r="AA239" s="15"/>
     </row>
-    <row r="240">
+    <row r="240" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y240" s="15"/>
       <c r="AA240" s="15"/>
     </row>
-    <row r="241">
+    <row r="241" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y241" s="15"/>
       <c r="AA241" s="15"/>
     </row>
-    <row r="242">
+    <row r="242" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y242" s="15"/>
       <c r="AA242" s="15"/>
     </row>
-    <row r="243">
+    <row r="243" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y243" s="15"/>
       <c r="AA243" s="15"/>
     </row>
-    <row r="244">
+    <row r="244" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y244" s="15"/>
       <c r="AA244" s="15"/>
     </row>
-    <row r="245">
+    <row r="245" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y245" s="15"/>
       <c r="AA245" s="15"/>
     </row>
-    <row r="246">
+    <row r="246" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y246" s="15"/>
       <c r="AA246" s="15"/>
     </row>
-    <row r="247">
+    <row r="247" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y247" s="15"/>
       <c r="AA247" s="15"/>
     </row>
-    <row r="248">
+    <row r="248" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y248" s="15"/>
       <c r="AA248" s="15"/>
     </row>
-    <row r="249">
+    <row r="249" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y249" s="15"/>
       <c r="AA249" s="15"/>
     </row>
-    <row r="250">
+    <row r="250" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y250" s="15"/>
       <c r="AA250" s="15"/>
     </row>
-    <row r="251">
+    <row r="251" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y251" s="15"/>
       <c r="AA251" s="15"/>
     </row>
-    <row r="252">
+    <row r="252" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y252" s="15"/>
       <c r="AA252" s="15"/>
     </row>
-    <row r="253">
+    <row r="253" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y253" s="15"/>
       <c r="AA253" s="15"/>
     </row>
-    <row r="254">
+    <row r="254" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y254" s="15"/>
       <c r="AA254" s="15"/>
     </row>
-    <row r="255">
+    <row r="255" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y255" s="15"/>
       <c r="AA255" s="15"/>
     </row>
-    <row r="256">
+    <row r="256" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y256" s="15"/>
       <c r="AA256" s="15"/>
     </row>
-    <row r="257">
+    <row r="257" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y257" s="15"/>
       <c r="AA257" s="15"/>
     </row>
-    <row r="258">
+    <row r="258" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y258" s="15"/>
       <c r="AA258" s="15"/>
     </row>
-    <row r="259">
+    <row r="259" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y259" s="15"/>
       <c r="AA259" s="15"/>
     </row>
-    <row r="260">
+    <row r="260" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y260" s="15"/>
       <c r="AA260" s="15"/>
     </row>
-    <row r="261">
+    <row r="261" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y261" s="15"/>
       <c r="AA261" s="15"/>
     </row>
-    <row r="262">
+    <row r="262" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y262" s="15"/>
       <c r="AA262" s="15"/>
     </row>
-    <row r="263">
+    <row r="263" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y263" s="15"/>
       <c r="AA263" s="15"/>
     </row>
-    <row r="264">
+    <row r="264" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y264" s="15"/>
       <c r="AA264" s="15"/>
     </row>
-    <row r="265">
+    <row r="265" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y265" s="15"/>
       <c r="AA265" s="15"/>
     </row>
-    <row r="266">
+    <row r="266" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y266" s="15"/>
       <c r="AA266" s="15"/>
     </row>
-    <row r="267">
+    <row r="267" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y267" s="15"/>
       <c r="AA267" s="15"/>
     </row>
-    <row r="268">
+    <row r="268" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y268" s="15"/>
       <c r="AA268" s="15"/>
     </row>
-    <row r="269">
+    <row r="269" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y269" s="15"/>
       <c r="AA269" s="15"/>
     </row>
-    <row r="270">
+    <row r="270" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y270" s="15"/>
       <c r="AA270" s="15"/>
     </row>
-    <row r="271">
+    <row r="271" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y271" s="15"/>
       <c r="AA271" s="15"/>
     </row>
-    <row r="272">
+    <row r="272" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y272" s="15"/>
       <c r="AA272" s="15"/>
     </row>
-    <row r="273">
+    <row r="273" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y273" s="15"/>
       <c r="AA273" s="15"/>
     </row>
-    <row r="274">
+    <row r="274" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y274" s="15"/>
       <c r="AA274" s="15"/>
     </row>
-    <row r="275">
+    <row r="275" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y275" s="15"/>
       <c r="AA275" s="15"/>
     </row>
-    <row r="276">
+    <row r="276" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y276" s="15"/>
       <c r="AA276" s="15"/>
     </row>
-    <row r="277">
+    <row r="277" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y277" s="15"/>
       <c r="AA277" s="15"/>
     </row>
-    <row r="278">
+    <row r="278" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y278" s="15"/>
       <c r="AA278" s="15"/>
     </row>
-    <row r="279">
+    <row r="279" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y279" s="15"/>
       <c r="AA279" s="15"/>
     </row>
-    <row r="280">
+    <row r="280" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y280" s="15"/>
       <c r="AA280" s="15"/>
     </row>
-    <row r="281">
+    <row r="281" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y281" s="15"/>
       <c r="AA281" s="15"/>
     </row>
-    <row r="282">
+    <row r="282" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y282" s="15"/>
       <c r="AA282" s="15"/>
     </row>
-    <row r="283">
+    <row r="283" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y283" s="15"/>
       <c r="AA283" s="15"/>
     </row>
-    <row r="284">
+    <row r="284" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y284" s="15"/>
       <c r="AA284" s="15"/>
     </row>
-    <row r="285">
+    <row r="285" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y285" s="15"/>
       <c r="AA285" s="15"/>
     </row>
-    <row r="286">
+    <row r="286" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y286" s="15"/>
       <c r="AA286" s="15"/>
     </row>
-    <row r="287">
+    <row r="287" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y287" s="15"/>
       <c r="AA287" s="15"/>
     </row>
-    <row r="288">
+    <row r="288" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y288" s="15"/>
       <c r="AA288" s="15"/>
     </row>
-    <row r="289">
+    <row r="289" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y289" s="15"/>
       <c r="AA289" s="15"/>
     </row>
-    <row r="290">
+    <row r="290" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y290" s="15"/>
       <c r="AA290" s="15"/>
     </row>
-    <row r="291">
+    <row r="291" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y291" s="15"/>
       <c r="AA291" s="15"/>
     </row>
-    <row r="292">
+    <row r="292" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y292" s="15"/>
       <c r="AA292" s="15"/>
     </row>
-    <row r="293">
+    <row r="293" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y293" s="15"/>
       <c r="AA293" s="15"/>
     </row>
-    <row r="294">
+    <row r="294" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y294" s="15"/>
       <c r="AA294" s="15"/>
     </row>
-    <row r="295">
+    <row r="295" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y295" s="15"/>
       <c r="AA295" s="15"/>
     </row>
-    <row r="296">
+    <row r="296" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y296" s="15"/>
       <c r="AA296" s="15"/>
     </row>
-    <row r="297">
+    <row r="297" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y297" s="15"/>
       <c r="AA297" s="15"/>
     </row>
-    <row r="298">
+    <row r="298" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y298" s="15"/>
       <c r="AA298" s="15"/>
     </row>
-    <row r="299">
+    <row r="299" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y299" s="15"/>
       <c r="AA299" s="15"/>
     </row>
-    <row r="300">
+    <row r="300" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y300" s="15"/>
       <c r="AA300" s="15"/>
     </row>
-    <row r="301">
+    <row r="301" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y301" s="15"/>
       <c r="AA301" s="15"/>
     </row>
-    <row r="302">
+    <row r="302" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y302" s="15"/>
       <c r="AA302" s="15"/>
     </row>
-    <row r="303">
+    <row r="303" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y303" s="15"/>
       <c r="AA303" s="15"/>
     </row>
-    <row r="304">
+    <row r="304" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y304" s="15"/>
       <c r="AA304" s="15"/>
     </row>
-    <row r="305">
+    <row r="305" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y305" s="15"/>
       <c r="AA305" s="15"/>
     </row>
-    <row r="306">
+    <row r="306" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y306" s="15"/>
       <c r="AA306" s="15"/>
     </row>
-    <row r="307">
+    <row r="307" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y307" s="15"/>
       <c r="AA307" s="15"/>
     </row>
-    <row r="308">
+    <row r="308" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y308" s="15"/>
       <c r="AA308" s="15"/>
     </row>
-    <row r="309">
+    <row r="309" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y309" s="15"/>
       <c r="AA309" s="15"/>
     </row>
-    <row r="310">
+    <row r="310" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y310" s="15"/>
       <c r="AA310" s="15"/>
     </row>
-    <row r="311">
+    <row r="311" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y311" s="15"/>
       <c r="AA311" s="15"/>
     </row>
-    <row r="312">
+    <row r="312" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y312" s="15"/>
       <c r="AA312" s="15"/>
     </row>
-    <row r="313">
+    <row r="313" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y313" s="15"/>
       <c r="AA313" s="15"/>
     </row>
-    <row r="314">
+    <row r="314" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y314" s="15"/>
       <c r="AA314" s="15"/>
     </row>
-    <row r="315">
+    <row r="315" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y315" s="15"/>
       <c r="AA315" s="15"/>
     </row>
-    <row r="316">
+    <row r="316" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y316" s="15"/>
       <c r="AA316" s="15"/>
     </row>
-    <row r="317">
+    <row r="317" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y317" s="15"/>
       <c r="AA317" s="15"/>
     </row>
-    <row r="318">
+    <row r="318" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y318" s="15"/>
       <c r="AA318" s="15"/>
     </row>
-    <row r="319">
+    <row r="319" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y319" s="15"/>
       <c r="AA319" s="15"/>
     </row>
-    <row r="320">
+    <row r="320" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y320" s="15"/>
       <c r="AA320" s="15"/>
     </row>
-    <row r="321">
+    <row r="321" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y321" s="15"/>
       <c r="AA321" s="15"/>
     </row>
-    <row r="322">
+    <row r="322" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y322" s="15"/>
       <c r="AA322" s="15"/>
     </row>
-    <row r="323">
+    <row r="323" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y323" s="15"/>
       <c r="AA323" s="15"/>
     </row>
-    <row r="324">
+    <row r="324" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y324" s="15"/>
       <c r="AA324" s="15"/>
     </row>
-    <row r="325">
+    <row r="325" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y325" s="15"/>
       <c r="AA325" s="15"/>
     </row>
-    <row r="326">
+    <row r="326" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y326" s="15"/>
       <c r="AA326" s="15"/>
     </row>
-    <row r="327">
+    <row r="327" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y327" s="15"/>
       <c r="AA327" s="15"/>
     </row>
-    <row r="328">
+    <row r="328" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y328" s="15"/>
       <c r="AA328" s="15"/>
     </row>
-    <row r="329">
+    <row r="329" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y329" s="15"/>
       <c r="AA329" s="15"/>
     </row>
-    <row r="330">
+    <row r="330" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y330" s="15"/>
       <c r="AA330" s="15"/>
     </row>
-    <row r="331">
+    <row r="331" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y331" s="15"/>
       <c r="AA331" s="15"/>
     </row>
-    <row r="332">
+    <row r="332" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y332" s="15"/>
       <c r="AA332" s="15"/>
     </row>
-    <row r="333">
+    <row r="333" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y333" s="15"/>
       <c r="AA333" s="15"/>
     </row>
-    <row r="334">
+    <row r="334" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y334" s="15"/>
       <c r="AA334" s="15"/>
     </row>
-    <row r="335">
+    <row r="335" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y335" s="15"/>
       <c r="AA335" s="15"/>
     </row>
-    <row r="336">
+    <row r="336" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y336" s="15"/>
       <c r="AA336" s="15"/>
     </row>
-    <row r="337">
+    <row r="337" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y337" s="15"/>
       <c r="AA337" s="15"/>
     </row>
-    <row r="338">
+    <row r="338" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y338" s="15"/>
       <c r="AA338" s="15"/>
     </row>
-    <row r="339">
+    <row r="339" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y339" s="15"/>
       <c r="AA339" s="15"/>
     </row>
-    <row r="340">
+    <row r="340" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y340" s="15"/>
       <c r="AA340" s="15"/>
     </row>
-    <row r="341">
+    <row r="341" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y341" s="15"/>
       <c r="AA341" s="15"/>
     </row>
-    <row r="342">
+    <row r="342" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y342" s="15"/>
       <c r="AA342" s="15"/>
     </row>
-    <row r="343">
+    <row r="343" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y343" s="15"/>
       <c r="AA343" s="15"/>
     </row>
-    <row r="344">
+    <row r="344" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y344" s="15"/>
       <c r="AA344" s="15"/>
     </row>
-    <row r="345">
+    <row r="345" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y345" s="15"/>
       <c r="AA345" s="15"/>
     </row>
-    <row r="346">
+    <row r="346" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y346" s="15"/>
       <c r="AA346" s="15"/>
     </row>
-    <row r="347">
+    <row r="347" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y347" s="15"/>
       <c r="AA347" s="15"/>
     </row>
-    <row r="348">
+    <row r="348" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y348" s="15"/>
       <c r="AA348" s="15"/>
     </row>
-    <row r="349">
+    <row r="349" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y349" s="15"/>
       <c r="AA349" s="15"/>
     </row>
-    <row r="350">
+    <row r="350" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y350" s="15"/>
       <c r="AA350" s="15"/>
     </row>
-    <row r="351">
+    <row r="351" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y351" s="15"/>
       <c r="AA351" s="15"/>
     </row>
-    <row r="352">
+    <row r="352" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y352" s="15"/>
       <c r="AA352" s="15"/>
     </row>
-    <row r="353">
+    <row r="353" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y353" s="15"/>
       <c r="AA353" s="15"/>
     </row>
-    <row r="354">
+    <row r="354" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y354" s="15"/>
       <c r="AA354" s="15"/>
     </row>
-    <row r="355">
+    <row r="355" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y355" s="15"/>
       <c r="AA355" s="15"/>
     </row>
-    <row r="356">
+    <row r="356" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y356" s="15"/>
       <c r="AA356" s="15"/>
     </row>
-    <row r="357">
+    <row r="357" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y357" s="15"/>
       <c r="AA357" s="15"/>
     </row>
-    <row r="358">
+    <row r="358" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y358" s="15"/>
       <c r="AA358" s="15"/>
     </row>
-    <row r="359">
+    <row r="359" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y359" s="15"/>
       <c r="AA359" s="15"/>
     </row>
-    <row r="360">
+    <row r="360" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y360" s="15"/>
       <c r="AA360" s="15"/>
     </row>
-    <row r="361">
+    <row r="361" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y361" s="15"/>
       <c r="AA361" s="15"/>
     </row>
-    <row r="362">
+    <row r="362" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y362" s="15"/>
       <c r="AA362" s="15"/>
     </row>
-    <row r="363">
+    <row r="363" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y363" s="15"/>
       <c r="AA363" s="15"/>
     </row>
-    <row r="364">
+    <row r="364" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y364" s="15"/>
       <c r="AA364" s="15"/>
     </row>
-    <row r="365">
+    <row r="365" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y365" s="15"/>
       <c r="AA365" s="15"/>
     </row>
-    <row r="366">
+    <row r="366" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y366" s="15"/>
       <c r="AA366" s="15"/>
     </row>
-    <row r="367">
+    <row r="367" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y367" s="15"/>
       <c r="AA367" s="15"/>
     </row>
-    <row r="368">
+    <row r="368" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y368" s="15"/>
       <c r="AA368" s="15"/>
     </row>
-    <row r="369">
+    <row r="369" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y369" s="15"/>
       <c r="AA369" s="15"/>
     </row>
-    <row r="370">
+    <row r="370" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y370" s="15"/>
       <c r="AA370" s="15"/>
     </row>
-    <row r="371">
+    <row r="371" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y371" s="15"/>
       <c r="AA371" s="15"/>
     </row>
-    <row r="372">
+    <row r="372" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y372" s="15"/>
       <c r="AA372" s="15"/>
     </row>
-    <row r="373">
+    <row r="373" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y373" s="15"/>
       <c r="AA373" s="15"/>
     </row>
-    <row r="374">
+    <row r="374" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y374" s="15"/>
       <c r="AA374" s="15"/>
     </row>
-    <row r="375">
+    <row r="375" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y375" s="15"/>
       <c r="AA375" s="15"/>
     </row>
-    <row r="376">
+    <row r="376" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y376" s="15"/>
       <c r="AA376" s="15"/>
     </row>
-    <row r="377">
+    <row r="377" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y377" s="15"/>
       <c r="AA377" s="15"/>
     </row>
-    <row r="378">
+    <row r="378" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y378" s="15"/>
       <c r="AA378" s="15"/>
     </row>
-    <row r="379">
+    <row r="379" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y379" s="15"/>
       <c r="AA379" s="15"/>
     </row>
-    <row r="380">
+    <row r="380" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y380" s="15"/>
       <c r="AA380" s="15"/>
     </row>
-    <row r="381">
+    <row r="381" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y381" s="15"/>
       <c r="AA381" s="15"/>
     </row>
-    <row r="382">
+    <row r="382" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y382" s="15"/>
       <c r="AA382" s="15"/>
     </row>
-    <row r="383">
+    <row r="383" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y383" s="15"/>
       <c r="AA383" s="15"/>
     </row>
-    <row r="384">
+    <row r="384" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y384" s="15"/>
       <c r="AA384" s="15"/>
     </row>
-    <row r="385">
+    <row r="385" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y385" s="15"/>
       <c r="AA385" s="15"/>
     </row>
-    <row r="386">
+    <row r="386" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y386" s="15"/>
       <c r="AA386" s="15"/>
     </row>
-    <row r="387">
+    <row r="387" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y387" s="15"/>
       <c r="AA387" s="15"/>
     </row>
-    <row r="388">
+    <row r="388" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y388" s="15"/>
       <c r="AA388" s="15"/>
     </row>
-    <row r="389">
+    <row r="389" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y389" s="15"/>
       <c r="AA389" s="15"/>
     </row>
-    <row r="390">
+    <row r="390" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y390" s="15"/>
       <c r="AA390" s="15"/>
     </row>
-    <row r="391">
+    <row r="391" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y391" s="15"/>
       <c r="AA391" s="15"/>
     </row>
-    <row r="392">
+    <row r="392" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y392" s="15"/>
       <c r="AA392" s="15"/>
     </row>
-    <row r="393">
+    <row r="393" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y393" s="15"/>
       <c r="AA393" s="15"/>
     </row>
-    <row r="394">
+    <row r="394" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y394" s="15"/>
       <c r="AA394" s="15"/>
     </row>
-    <row r="395">
+    <row r="395" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y395" s="15"/>
       <c r="AA395" s="15"/>
     </row>
-    <row r="396">
+    <row r="396" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y396" s="15"/>
       <c r="AA396" s="15"/>
     </row>
-    <row r="397">
+    <row r="397" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y397" s="15"/>
       <c r="AA397" s="15"/>
     </row>
-    <row r="398">
+    <row r="398" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y398" s="15"/>
       <c r="AA398" s="15"/>
     </row>
-    <row r="399">
+    <row r="399" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y399" s="15"/>
       <c r="AA399" s="15"/>
     </row>
-    <row r="400">
+    <row r="400" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y400" s="15"/>
       <c r="AA400" s="15"/>
     </row>
-    <row r="401">
+    <row r="401" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y401" s="15"/>
       <c r="AA401" s="15"/>
     </row>
-    <row r="402">
+    <row r="402" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y402" s="15"/>
       <c r="AA402" s="15"/>
     </row>
-    <row r="403">
+    <row r="403" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y403" s="15"/>
       <c r="AA403" s="15"/>
     </row>
-    <row r="404">
+    <row r="404" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y404" s="15"/>
       <c r="AA404" s="15"/>
     </row>
-    <row r="405">
+    <row r="405" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y405" s="15"/>
       <c r="AA405" s="15"/>
     </row>
-    <row r="406">
+    <row r="406" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y406" s="15"/>
       <c r="AA406" s="15"/>
     </row>
-    <row r="407">
+    <row r="407" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y407" s="15"/>
       <c r="AA407" s="15"/>
     </row>
-    <row r="408">
+    <row r="408" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y408" s="15"/>
       <c r="AA408" s="15"/>
     </row>
-    <row r="409">
+    <row r="409" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y409" s="15"/>
       <c r="AA409" s="15"/>
     </row>
-    <row r="410">
+    <row r="410" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y410" s="15"/>
       <c r="AA410" s="15"/>
     </row>
-    <row r="411">
+    <row r="411" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y411" s="15"/>
       <c r="AA411" s="15"/>
     </row>
-    <row r="412">
+    <row r="412" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y412" s="15"/>
       <c r="AA412" s="15"/>
     </row>
-    <row r="413">
+    <row r="413" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y413" s="15"/>
       <c r="AA413" s="15"/>
     </row>
-    <row r="414">
+    <row r="414" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y414" s="15"/>
       <c r="AA414" s="15"/>
     </row>
-    <row r="415">
+    <row r="415" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y415" s="15"/>
       <c r="AA415" s="15"/>
     </row>
-    <row r="416">
+    <row r="416" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y416" s="15"/>
       <c r="AA416" s="15"/>
     </row>
-    <row r="417">
+    <row r="417" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y417" s="15"/>
       <c r="AA417" s="15"/>
     </row>
-    <row r="418">
+    <row r="418" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y418" s="15"/>
       <c r="AA418" s="15"/>
     </row>
-    <row r="419">
+    <row r="419" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y419" s="15"/>
       <c r="AA419" s="15"/>
     </row>
-    <row r="420">
+    <row r="420" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y420" s="15"/>
       <c r="AA420" s="15"/>
     </row>
-    <row r="421">
+    <row r="421" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y421" s="15"/>
       <c r="AA421" s="15"/>
     </row>
-    <row r="422">
+    <row r="422" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y422" s="15"/>
       <c r="AA422" s="15"/>
     </row>
-    <row r="423">
+    <row r="423" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y423" s="15"/>
       <c r="AA423" s="15"/>
     </row>
-    <row r="424">
+    <row r="424" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y424" s="15"/>
       <c r="AA424" s="15"/>
     </row>
-    <row r="425">
+    <row r="425" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y425" s="15"/>
       <c r="AA425" s="15"/>
     </row>
-    <row r="426">
+    <row r="426" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y426" s="15"/>
       <c r="AA426" s="15"/>
     </row>
-    <row r="427">
+    <row r="427" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y427" s="15"/>
       <c r="AA427" s="15"/>
     </row>
-    <row r="428">
+    <row r="428" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y428" s="15"/>
       <c r="AA428" s="15"/>
     </row>
-    <row r="429">
+    <row r="429" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y429" s="15"/>
       <c r="AA429" s="15"/>
     </row>
-    <row r="430">
+    <row r="430" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y430" s="15"/>
       <c r="AA430" s="15"/>
     </row>
-    <row r="431">
+    <row r="431" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y431" s="15"/>
       <c r="AA431" s="15"/>
     </row>
-    <row r="432">
+    <row r="432" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y432" s="15"/>
       <c r="AA432" s="15"/>
     </row>
-    <row r="433">
+    <row r="433" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y433" s="15"/>
       <c r="AA433" s="15"/>
     </row>
-    <row r="434">
+    <row r="434" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y434" s="15"/>
       <c r="AA434" s="15"/>
     </row>
-    <row r="435">
+    <row r="435" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y435" s="15"/>
       <c r="AA435" s="15"/>
     </row>
-    <row r="436">
+    <row r="436" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y436" s="15"/>
       <c r="AA436" s="15"/>
     </row>
-    <row r="437">
+    <row r="437" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y437" s="15"/>
       <c r="AA437" s="15"/>
     </row>
-    <row r="438">
+    <row r="438" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y438" s="15"/>
       <c r="AA438" s="15"/>
     </row>
-    <row r="439">
+    <row r="439" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y439" s="15"/>
       <c r="AA439" s="15"/>
     </row>
-    <row r="440">
+    <row r="440" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y440" s="15"/>
       <c r="AA440" s="15"/>
     </row>
-    <row r="441">
+    <row r="441" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y441" s="15"/>
       <c r="AA441" s="15"/>
     </row>
-    <row r="442">
+    <row r="442" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y442" s="15"/>
       <c r="AA442" s="15"/>
     </row>
-    <row r="443">
+    <row r="443" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y443" s="15"/>
       <c r="AA443" s="15"/>
     </row>
-    <row r="444">
+    <row r="444" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y444" s="15"/>
       <c r="AA444" s="15"/>
     </row>
-    <row r="445">
+    <row r="445" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y445" s="15"/>
       <c r="AA445" s="15"/>
     </row>
-    <row r="446">
+    <row r="446" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y446" s="15"/>
       <c r="AA446" s="15"/>
     </row>
-    <row r="447">
+    <row r="447" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y447" s="15"/>
       <c r="AA447" s="15"/>
     </row>
-    <row r="448">
+    <row r="448" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y448" s="15"/>
       <c r="AA448" s="15"/>
     </row>
-    <row r="449">
+    <row r="449" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y449" s="15"/>
       <c r="AA449" s="15"/>
     </row>
-    <row r="450">
+    <row r="450" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y450" s="15"/>
       <c r="AA450" s="15"/>
     </row>
-    <row r="451">
+    <row r="451" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y451" s="15"/>
       <c r="AA451" s="15"/>
     </row>
-    <row r="452">
+    <row r="452" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y452" s="15"/>
       <c r="AA452" s="15"/>
     </row>
-    <row r="453">
+    <row r="453" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y453" s="15"/>
       <c r="AA453" s="15"/>
     </row>
-    <row r="454">
+    <row r="454" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y454" s="15"/>
       <c r="AA454" s="15"/>
     </row>
-    <row r="455">
+    <row r="455" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y455" s="15"/>
       <c r="AA455" s="15"/>
     </row>
-    <row r="456">
+    <row r="456" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y456" s="15"/>
       <c r="AA456" s="15"/>
     </row>
-    <row r="457">
+    <row r="457" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y457" s="15"/>
       <c r="AA457" s="15"/>
     </row>
-    <row r="458">
+    <row r="458" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y458" s="15"/>
       <c r="AA458" s="15"/>
     </row>
-    <row r="459">
+    <row r="459" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y459" s="15"/>
       <c r="AA459" s="15"/>
     </row>
-    <row r="460">
+    <row r="460" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y460" s="15"/>
       <c r="AA460" s="15"/>
     </row>
-    <row r="461">
+    <row r="461" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y461" s="15"/>
       <c r="AA461" s="15"/>
     </row>
-    <row r="462">
+    <row r="462" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y462" s="15"/>
       <c r="AA462" s="15"/>
     </row>
-    <row r="463">
+    <row r="463" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y463" s="15"/>
       <c r="AA463" s="15"/>
     </row>
-    <row r="464">
+    <row r="464" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y464" s="15"/>
       <c r="AA464" s="15"/>
     </row>
-    <row r="465">
+    <row r="465" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y465" s="15"/>
       <c r="AA465" s="15"/>
     </row>
-    <row r="466">
+    <row r="466" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y466" s="15"/>
       <c r="AA466" s="15"/>
     </row>
-    <row r="467">
+    <row r="467" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y467" s="15"/>
       <c r="AA467" s="15"/>
     </row>
-    <row r="468">
+    <row r="468" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y468" s="15"/>
       <c r="AA468" s="15"/>
     </row>
-    <row r="469">
+    <row r="469" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y469" s="15"/>
       <c r="AA469" s="15"/>
     </row>
-    <row r="470">
+    <row r="470" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y470" s="15"/>
       <c r="AA470" s="15"/>
     </row>
-    <row r="471">
+    <row r="471" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y471" s="15"/>
       <c r="AA471" s="15"/>
     </row>
-    <row r="472">
+    <row r="472" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y472" s="15"/>
       <c r="AA472" s="15"/>
     </row>
-    <row r="473">
+    <row r="473" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y473" s="15"/>
       <c r="AA473" s="15"/>
     </row>
-    <row r="474">
+    <row r="474" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y474" s="15"/>
       <c r="AA474" s="15"/>
     </row>
-    <row r="475">
+    <row r="475" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y475" s="15"/>
       <c r="AA475" s="15"/>
     </row>
-    <row r="476">
+    <row r="476" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y476" s="15"/>
       <c r="AA476" s="15"/>
     </row>
-    <row r="477">
+    <row r="477" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y477" s="15"/>
       <c r="AA477" s="15"/>
     </row>
-    <row r="478">
+    <row r="478" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y478" s="15"/>
       <c r="AA478" s="15"/>
     </row>
-    <row r="479">
+    <row r="479" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y479" s="15"/>
       <c r="AA479" s="15"/>
     </row>
-    <row r="480">
+    <row r="480" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y480" s="15"/>
       <c r="AA480" s="15"/>
     </row>
-    <row r="481">
+    <row r="481" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y481" s="15"/>
       <c r="AA481" s="15"/>
     </row>
-    <row r="482">
+    <row r="482" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y482" s="15"/>
       <c r="AA482" s="15"/>
     </row>
-    <row r="483">
+    <row r="483" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y483" s="15"/>
       <c r="AA483" s="15"/>
     </row>
-    <row r="484">
+    <row r="484" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y484" s="15"/>
       <c r="AA484" s="15"/>
     </row>
-    <row r="485">
+    <row r="485" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y485" s="15"/>
       <c r="AA485" s="15"/>
     </row>
-    <row r="486">
+    <row r="486" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y486" s="15"/>
       <c r="AA486" s="15"/>
     </row>
-    <row r="487">
+    <row r="487" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y487" s="15"/>
       <c r="AA487" s="15"/>
     </row>
-    <row r="488">
+    <row r="488" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y488" s="15"/>
       <c r="AA488" s="15"/>
     </row>
-    <row r="489">
+    <row r="489" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y489" s="15"/>
       <c r="AA489" s="15"/>
     </row>
-    <row r="490">
+    <row r="490" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y490" s="15"/>
       <c r="AA490" s="15"/>
     </row>
-    <row r="491">
+    <row r="491" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y491" s="15"/>
       <c r="AA491" s="15"/>
     </row>
-    <row r="492">
+    <row r="492" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y492" s="15"/>
       <c r="AA492" s="15"/>
     </row>
-    <row r="493">
+    <row r="493" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y493" s="15"/>
       <c r="AA493" s="15"/>
     </row>
-    <row r="494">
+    <row r="494" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y494" s="15"/>
       <c r="AA494" s="15"/>
     </row>
-    <row r="495">
+    <row r="495" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y495" s="15"/>
       <c r="AA495" s="15"/>
     </row>
-    <row r="496">
+    <row r="496" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y496" s="15"/>
       <c r="AA496" s="15"/>
     </row>
-    <row r="497">
+    <row r="497" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y497" s="15"/>
       <c r="AA497" s="15"/>
     </row>
-    <row r="498">
+    <row r="498" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y498" s="15"/>
       <c r="AA498" s="15"/>
     </row>
-    <row r="499">
+    <row r="499" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y499" s="15"/>
       <c r="AA499" s="15"/>
     </row>
-    <row r="500">
+    <row r="500" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y500" s="15"/>
       <c r="AA500" s="15"/>
     </row>
-    <row r="501">
+    <row r="501" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y501" s="15"/>
       <c r="AA501" s="15"/>
     </row>
-    <row r="502">
+    <row r="502" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y502" s="15"/>
       <c r="AA502" s="15"/>
     </row>
-    <row r="503">
+    <row r="503" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y503" s="15"/>
       <c r="AA503" s="15"/>
     </row>
-    <row r="504">
+    <row r="504" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y504" s="15"/>
       <c r="AA504" s="15"/>
     </row>
-    <row r="505">
+    <row r="505" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y505" s="15"/>
       <c r="AA505" s="15"/>
     </row>
-    <row r="506">
+    <row r="506" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y506" s="15"/>
       <c r="AA506" s="15"/>
     </row>
-    <row r="507">
+    <row r="507" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y507" s="15"/>
       <c r="AA507" s="15"/>
     </row>
-    <row r="508">
+    <row r="508" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y508" s="15"/>
       <c r="AA508" s="15"/>
     </row>
-    <row r="509">
+    <row r="509" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y509" s="15"/>
       <c r="AA509" s="15"/>
     </row>
-    <row r="510">
+    <row r="510" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y510" s="15"/>
       <c r="AA510" s="15"/>
     </row>
-    <row r="511">
+    <row r="511" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y511" s="15"/>
       <c r="AA511" s="15"/>
     </row>
-    <row r="512">
+    <row r="512" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y512" s="15"/>
       <c r="AA512" s="15"/>
     </row>
-    <row r="513">
+    <row r="513" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y513" s="15"/>
       <c r="AA513" s="15"/>
     </row>
-    <row r="514">
+    <row r="514" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y514" s="15"/>
       <c r="AA514" s="15"/>
     </row>
-    <row r="515">
+    <row r="515" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y515" s="15"/>
       <c r="AA515" s="15"/>
     </row>
-    <row r="516">
+    <row r="516" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y516" s="15"/>
       <c r="AA516" s="15"/>
     </row>
-    <row r="517">
+    <row r="517" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y517" s="15"/>
       <c r="AA517" s="15"/>
     </row>
-    <row r="518">
+    <row r="518" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y518" s="15"/>
       <c r="AA518" s="15"/>
     </row>
-    <row r="519">
+    <row r="519" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y519" s="15"/>
       <c r="AA519" s="15"/>
     </row>
-    <row r="520">
+    <row r="520" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y520" s="15"/>
       <c r="AA520" s="15"/>
     </row>
-    <row r="521">
+    <row r="521" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y521" s="15"/>
       <c r="AA521" s="15"/>
     </row>
-    <row r="522">
+    <row r="522" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y522" s="15"/>
       <c r="AA522" s="15"/>
     </row>
-    <row r="523">
+    <row r="523" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y523" s="15"/>
       <c r="AA523" s="15"/>
     </row>
-    <row r="524">
+    <row r="524" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y524" s="15"/>
       <c r="AA524" s="15"/>
     </row>
-    <row r="525">
+    <row r="525" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y525" s="15"/>
       <c r="AA525" s="15"/>
     </row>
-    <row r="526">
+    <row r="526" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y526" s="15"/>
       <c r="AA526" s="15"/>
     </row>
-    <row r="527">
+    <row r="527" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y527" s="15"/>
       <c r="AA527" s="15"/>
     </row>
-    <row r="528">
+    <row r="528" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y528" s="15"/>
       <c r="AA528" s="15"/>
     </row>
-    <row r="529">
+    <row r="529" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y529" s="15"/>
       <c r="AA529" s="15"/>
     </row>
-    <row r="530">
+    <row r="530" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y530" s="15"/>
       <c r="AA530" s="15"/>
     </row>
-    <row r="531">
+    <row r="531" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y531" s="15"/>
       <c r="AA531" s="15"/>
     </row>
-    <row r="532">
+    <row r="532" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y532" s="15"/>
       <c r="AA532" s="15"/>
     </row>
-    <row r="533">
+    <row r="533" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y533" s="15"/>
       <c r="AA533" s="15"/>
     </row>
-    <row r="534">
+    <row r="534" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y534" s="15"/>
       <c r="AA534" s="15"/>
     </row>
-    <row r="535">
+    <row r="535" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y535" s="15"/>
       <c r="AA535" s="15"/>
     </row>
-    <row r="536">
+    <row r="536" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y536" s="15"/>
       <c r="AA536" s="15"/>
     </row>
-    <row r="537">
+    <row r="537" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y537" s="15"/>
       <c r="AA537" s="15"/>
     </row>
-    <row r="538">
+    <row r="538" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y538" s="15"/>
       <c r="AA538" s="15"/>
     </row>
-    <row r="539">
+    <row r="539" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y539" s="15"/>
       <c r="AA539" s="15"/>
     </row>
-    <row r="540">
+    <row r="540" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y540" s="15"/>
       <c r="AA540" s="15"/>
     </row>
-    <row r="541">
+    <row r="541" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y541" s="15"/>
       <c r="AA541" s="15"/>
     </row>
-    <row r="542">
+    <row r="542" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y542" s="15"/>
       <c r="AA542" s="15"/>
     </row>
-    <row r="543">
+    <row r="543" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y543" s="15"/>
       <c r="AA543" s="15"/>
     </row>
-    <row r="544">
+    <row r="544" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y544" s="15"/>
       <c r="AA544" s="15"/>
     </row>
-    <row r="545">
+    <row r="545" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y545" s="15"/>
       <c r="AA545" s="15"/>
     </row>
-    <row r="546">
+    <row r="546" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y546" s="15"/>
       <c r="AA546" s="15"/>
     </row>
-    <row r="547">
+    <row r="547" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y547" s="15"/>
       <c r="AA547" s="15"/>
     </row>
-    <row r="548">
+    <row r="548" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y548" s="15"/>
       <c r="AA548" s="15"/>
     </row>
-    <row r="549">
+    <row r="549" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y549" s="15"/>
       <c r="AA549" s="15"/>
     </row>
-    <row r="550">
+    <row r="550" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y550" s="15"/>
       <c r="AA550" s="15"/>
     </row>
-    <row r="551">
+    <row r="551" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y551" s="15"/>
       <c r="AA551" s="15"/>
     </row>
-    <row r="552">
+    <row r="552" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y552" s="15"/>
       <c r="AA552" s="15"/>
     </row>
-    <row r="553">
+    <row r="553" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y553" s="15"/>
       <c r="AA553" s="15"/>
     </row>
-    <row r="554">
+    <row r="554" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y554" s="15"/>
       <c r="AA554" s="15"/>
     </row>
-    <row r="555">
+    <row r="555" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y555" s="15"/>
       <c r="AA555" s="15"/>
     </row>
-    <row r="556">
+    <row r="556" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y556" s="15"/>
       <c r="AA556" s="15"/>
     </row>
-    <row r="557">
+    <row r="557" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y557" s="15"/>
       <c r="AA557" s="15"/>
     </row>
-    <row r="558">
+    <row r="558" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y558" s="15"/>
       <c r="AA558" s="15"/>
     </row>
-    <row r="559">
+    <row r="559" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y559" s="15"/>
       <c r="AA559" s="15"/>
     </row>
-    <row r="560">
+    <row r="560" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y560" s="15"/>
       <c r="AA560" s="15"/>
     </row>
-    <row r="561">
+    <row r="561" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y561" s="15"/>
       <c r="AA561" s="15"/>
     </row>
-    <row r="562">
+    <row r="562" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y562" s="15"/>
       <c r="AA562" s="15"/>
     </row>
-    <row r="563">
+    <row r="563" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y563" s="15"/>
       <c r="AA563" s="15"/>
     </row>
-    <row r="564">
+    <row r="564" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y564" s="15"/>
       <c r="AA564" s="15"/>
     </row>
-    <row r="565">
+    <row r="565" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y565" s="15"/>
       <c r="AA565" s="15"/>
     </row>
-    <row r="566">
+    <row r="566" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y566" s="15"/>
       <c r="AA566" s="15"/>
     </row>
-    <row r="567">
+    <row r="567" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y567" s="15"/>
       <c r="AA567" s="15"/>
     </row>
-    <row r="568">
+    <row r="568" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y568" s="15"/>
       <c r="AA568" s="15"/>
     </row>
-    <row r="569">
+    <row r="569" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y569" s="15"/>
       <c r="AA569" s="15"/>
     </row>
-    <row r="570">
+    <row r="570" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y570" s="15"/>
       <c r="AA570" s="15"/>
     </row>
-    <row r="571">
+    <row r="571" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y571" s="15"/>
       <c r="AA571" s="15"/>
     </row>
-    <row r="572">
+    <row r="572" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y572" s="15"/>
       <c r="AA572" s="15"/>
     </row>
-    <row r="573">
+    <row r="573" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y573" s="15"/>
       <c r="AA573" s="15"/>
     </row>
-    <row r="574">
+    <row r="574" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y574" s="15"/>
       <c r="AA574" s="15"/>
     </row>
-    <row r="575">
+    <row r="575" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y575" s="15"/>
       <c r="AA575" s="15"/>
     </row>
-    <row r="576">
+    <row r="576" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y576" s="15"/>
       <c r="AA576" s="15"/>
     </row>
-    <row r="577">
+    <row r="577" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y577" s="15"/>
       <c r="AA577" s="15"/>
     </row>
-    <row r="578">
+    <row r="578" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y578" s="15"/>
       <c r="AA578" s="15"/>
     </row>
-    <row r="579">
+    <row r="579" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y579" s="15"/>
       <c r="AA579" s="15"/>
     </row>
-    <row r="580">
+    <row r="580" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y580" s="15"/>
       <c r="AA580" s="15"/>
     </row>
-    <row r="581">
+    <row r="581" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y581" s="15"/>
       <c r="AA581" s="15"/>
     </row>
-    <row r="582">
+    <row r="582" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y582" s="15"/>
       <c r="AA582" s="15"/>
     </row>
-    <row r="583">
+    <row r="583" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y583" s="15"/>
       <c r="AA583" s="15"/>
     </row>
-    <row r="584">
+    <row r="584" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y584" s="15"/>
       <c r="AA584" s="15"/>
     </row>
-    <row r="585">
+    <row r="585" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y585" s="15"/>
       <c r="AA585" s="15"/>
     </row>
-    <row r="586">
+    <row r="586" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y586" s="15"/>
       <c r="AA586" s="15"/>
     </row>
-    <row r="587">
+    <row r="587" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y587" s="15"/>
       <c r="AA587" s="15"/>
     </row>
-    <row r="588">
+    <row r="588" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y588" s="15"/>
       <c r="AA588" s="15"/>
     </row>
-    <row r="589">
+    <row r="589" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y589" s="15"/>
       <c r="AA589" s="15"/>
     </row>
-    <row r="590">
+    <row r="590" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y590" s="15"/>
       <c r="AA590" s="15"/>
     </row>
-    <row r="591">
+    <row r="591" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y591" s="15"/>
       <c r="AA591" s="15"/>
     </row>
-    <row r="592">
+    <row r="592" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y592" s="15"/>
       <c r="AA592" s="15"/>
     </row>
-    <row r="593">
+    <row r="593" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y593" s="15"/>
       <c r="AA593" s="15"/>
     </row>
-    <row r="594">
+    <row r="594" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y594" s="15"/>
       <c r="AA594" s="15"/>
     </row>
-    <row r="595">
+    <row r="595" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y595" s="15"/>
       <c r="AA595" s="15"/>
     </row>
-    <row r="596">
+    <row r="596" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y596" s="15"/>
       <c r="AA596" s="15"/>
     </row>
-    <row r="597">
+    <row r="597" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y597" s="15"/>
       <c r="AA597" s="15"/>
     </row>
-    <row r="598">
+    <row r="598" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y598" s="15"/>
       <c r="AA598" s="15"/>
     </row>
-    <row r="599">
+    <row r="599" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y599" s="15"/>
       <c r="AA599" s="15"/>
     </row>
-    <row r="600">
+    <row r="600" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y600" s="15"/>
       <c r="AA600" s="15"/>
     </row>
-    <row r="601">
+    <row r="601" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y601" s="15"/>
       <c r="AA601" s="15"/>
     </row>
-    <row r="602">
+    <row r="602" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y602" s="15"/>
       <c r="AA602" s="15"/>
     </row>
-    <row r="603">
+    <row r="603" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y603" s="15"/>
       <c r="AA603" s="15"/>
     </row>
-    <row r="604">
+    <row r="604" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y604" s="15"/>
       <c r="AA604" s="15"/>
     </row>
-    <row r="605">
+    <row r="605" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y605" s="15"/>
       <c r="AA605" s="15"/>
     </row>
-    <row r="606">
+    <row r="606" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y606" s="15"/>
       <c r="AA606" s="15"/>
     </row>
-    <row r="607">
+    <row r="607" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y607" s="15"/>
       <c r="AA607" s="15"/>
     </row>
-    <row r="608">
+    <row r="608" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y608" s="15"/>
       <c r="AA608" s="15"/>
     </row>
-    <row r="609">
+    <row r="609" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y609" s="15"/>
       <c r="AA609" s="15"/>
     </row>
-    <row r="610">
+    <row r="610" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y610" s="15"/>
       <c r="AA610" s="15"/>
     </row>
-    <row r="611">
+    <row r="611" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y611" s="15"/>
       <c r="AA611" s="15"/>
     </row>
-    <row r="612">
+    <row r="612" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y612" s="15"/>
       <c r="AA612" s="15"/>
     </row>
-    <row r="613">
+    <row r="613" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y613" s="15"/>
       <c r="AA613" s="15"/>
     </row>
-    <row r="614">
+    <row r="614" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y614" s="15"/>
       <c r="AA614" s="15"/>
     </row>
-    <row r="615">
+    <row r="615" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y615" s="15"/>
       <c r="AA615" s="15"/>
     </row>
-    <row r="616">
+    <row r="616" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y616" s="15"/>
       <c r="AA616" s="15"/>
     </row>
-    <row r="617">
+    <row r="617" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y617" s="15"/>
       <c r="AA617" s="15"/>
     </row>
-    <row r="618">
+    <row r="618" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y618" s="15"/>
       <c r="AA618" s="15"/>
     </row>
-    <row r="619">
+    <row r="619" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y619" s="15"/>
       <c r="AA619" s="15"/>
     </row>
-    <row r="620">
+    <row r="620" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y620" s="15"/>
       <c r="AA620" s="15"/>
     </row>
-    <row r="621">
+    <row r="621" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y621" s="15"/>
       <c r="AA621" s="15"/>
     </row>
-    <row r="622">
+    <row r="622" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y622" s="15"/>
       <c r="AA622" s="15"/>
     </row>
-    <row r="623">
+    <row r="623" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y623" s="15"/>
       <c r="AA623" s="15"/>
     </row>
-    <row r="624">
+    <row r="624" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y624" s="15"/>
       <c r="AA624" s="15"/>
     </row>
-    <row r="625">
+    <row r="625" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y625" s="15"/>
       <c r="AA625" s="15"/>
     </row>
-    <row r="626">
+    <row r="626" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y626" s="15"/>
       <c r="AA626" s="15"/>
     </row>
-    <row r="627">
+    <row r="627" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y627" s="15"/>
       <c r="AA627" s="15"/>
     </row>
-    <row r="628">
+    <row r="628" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y628" s="15"/>
       <c r="AA628" s="15"/>
     </row>
-    <row r="629">
+    <row r="629" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y629" s="15"/>
       <c r="AA629" s="15"/>
     </row>
-    <row r="630">
+    <row r="630" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y630" s="15"/>
       <c r="AA630" s="15"/>
     </row>
-    <row r="631">
+    <row r="631" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y631" s="15"/>
       <c r="AA631" s="15"/>
     </row>
-    <row r="632">
+    <row r="632" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y632" s="15"/>
       <c r="AA632" s="15"/>
     </row>
-    <row r="633">
+    <row r="633" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y633" s="15"/>
       <c r="AA633" s="15"/>
     </row>
-    <row r="634">
+    <row r="634" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y634" s="15"/>
       <c r="AA634" s="15"/>
     </row>
-    <row r="635">
+    <row r="635" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y635" s="15"/>
       <c r="AA635" s="15"/>
     </row>
-    <row r="636">
+    <row r="636" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y636" s="15"/>
       <c r="AA636" s="15"/>
     </row>
-    <row r="637">
+    <row r="637" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y637" s="15"/>
       <c r="AA637" s="15"/>
     </row>
-    <row r="638">
+    <row r="638" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y638" s="15"/>
       <c r="AA638" s="15"/>
     </row>
-    <row r="639">
+    <row r="639" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y639" s="15"/>
       <c r="AA639" s="15"/>
     </row>
-    <row r="640">
+    <row r="640" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y640" s="15"/>
       <c r="AA640" s="15"/>
     </row>
-    <row r="641">
+    <row r="641" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y641" s="15"/>
       <c r="AA641" s="15"/>
     </row>
-    <row r="642">
+    <row r="642" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y642" s="15"/>
       <c r="AA642" s="15"/>
     </row>
-    <row r="643">
+    <row r="643" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y643" s="15"/>
       <c r="AA643" s="15"/>
     </row>
-    <row r="644">
+    <row r="644" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y644" s="15"/>
       <c r="AA644" s="15"/>
     </row>
-    <row r="645">
+    <row r="645" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y645" s="15"/>
       <c r="AA645" s="15"/>
     </row>
-    <row r="646">
+    <row r="646" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y646" s="15"/>
       <c r="AA646" s="15"/>
     </row>
-    <row r="647">
+    <row r="647" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y647" s="15"/>
       <c r="AA647" s="15"/>
     </row>
-    <row r="648">
+    <row r="648" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y648" s="15"/>
       <c r="AA648" s="15"/>
     </row>
-    <row r="649">
+    <row r="649" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y649" s="15"/>
       <c r="AA649" s="15"/>
     </row>
-    <row r="650">
+    <row r="650" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y650" s="15"/>
       <c r="AA650" s="15"/>
     </row>
-    <row r="651">
+    <row r="651" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y651" s="15"/>
       <c r="AA651" s="15"/>
     </row>
-    <row r="652">
+    <row r="652" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y652" s="15"/>
       <c r="AA652" s="15"/>
     </row>
-    <row r="653">
+    <row r="653" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y653" s="15"/>
       <c r="AA653" s="15"/>
     </row>
-    <row r="654">
+    <row r="654" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y654" s="15"/>
       <c r="AA654" s="15"/>
     </row>
-    <row r="655">
+    <row r="655" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y655" s="15"/>
       <c r="AA655" s="15"/>
     </row>
-    <row r="656">
+    <row r="656" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y656" s="15"/>
       <c r="AA656" s="15"/>
     </row>
-    <row r="657">
+    <row r="657" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y657" s="15"/>
       <c r="AA657" s="15"/>
     </row>
-    <row r="658">
+    <row r="658" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y658" s="15"/>
       <c r="AA658" s="15"/>
     </row>
-    <row r="659">
+    <row r="659" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y659" s="15"/>
       <c r="AA659" s="15"/>
     </row>
-    <row r="660">
+    <row r="660" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y660" s="15"/>
       <c r="AA660" s="15"/>
     </row>
-    <row r="661">
+    <row r="661" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y661" s="15"/>
       <c r="AA661" s="15"/>
     </row>
-    <row r="662">
+    <row r="662" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y662" s="15"/>
       <c r="AA662" s="15"/>
     </row>
-    <row r="663">
+    <row r="663" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y663" s="15"/>
       <c r="AA663" s="15"/>
     </row>
-    <row r="664">
+    <row r="664" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y664" s="15"/>
       <c r="AA664" s="15"/>
     </row>
-    <row r="665">
+    <row r="665" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y665" s="15"/>
       <c r="AA665" s="15"/>
     </row>
-    <row r="666">
+    <row r="666" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y666" s="15"/>
       <c r="AA666" s="15"/>
     </row>
-    <row r="667">
+    <row r="667" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y667" s="15"/>
       <c r="AA667" s="15"/>
     </row>
-    <row r="668">
+    <row r="668" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y668" s="15"/>
       <c r="AA668" s="15"/>
     </row>
-    <row r="669">
+    <row r="669" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y669" s="15"/>
       <c r="AA669" s="15"/>
     </row>
-    <row r="670">
+    <row r="670" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y670" s="15"/>
       <c r="AA670" s="15"/>
     </row>
-    <row r="671">
+    <row r="671" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y671" s="15"/>
       <c r="AA671" s="15"/>
     </row>
-    <row r="672">
+    <row r="672" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y672" s="15"/>
       <c r="AA672" s="15"/>
     </row>
-    <row r="673">
+    <row r="673" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y673" s="15"/>
       <c r="AA673" s="15"/>
     </row>
-    <row r="674">
+    <row r="674" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y674" s="15"/>
       <c r="AA674" s="15"/>
     </row>
-    <row r="675">
+    <row r="675" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y675" s="15"/>
       <c r="AA675" s="15"/>
     </row>
-    <row r="676">
+    <row r="676" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y676" s="15"/>
       <c r="AA676" s="15"/>
     </row>
-    <row r="677">
+    <row r="677" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y677" s="15"/>
       <c r="AA677" s="15"/>
     </row>
-    <row r="678">
+    <row r="678" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y678" s="15"/>
       <c r="AA678" s="15"/>
     </row>
-    <row r="679">
+    <row r="679" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y679" s="15"/>
       <c r="AA679" s="15"/>
     </row>
-    <row r="680">
+    <row r="680" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y680" s="15"/>
       <c r="AA680" s="15"/>
     </row>
-    <row r="681">
+    <row r="681" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y681" s="15"/>
       <c r="AA681" s="15"/>
     </row>
-    <row r="682">
+    <row r="682" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y682" s="15"/>
       <c r="AA682" s="15"/>
     </row>
-    <row r="683">
+    <row r="683" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y683" s="15"/>
       <c r="AA683" s="15"/>
     </row>
-    <row r="684">
+    <row r="684" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y684" s="15"/>
       <c r="AA684" s="15"/>
     </row>
-    <row r="685">
+    <row r="685" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y685" s="15"/>
       <c r="AA685" s="15"/>
     </row>
-    <row r="686">
+    <row r="686" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y686" s="15"/>
       <c r="AA686" s="15"/>
     </row>
-    <row r="687">
+    <row r="687" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y687" s="15"/>
       <c r="AA687" s="15"/>
     </row>
-    <row r="688">
+    <row r="688" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y688" s="15"/>
       <c r="AA688" s="15"/>
     </row>
-    <row r="689">
+    <row r="689" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y689" s="15"/>
       <c r="AA689" s="15"/>
     </row>
-    <row r="690">
+    <row r="690" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y690" s="15"/>
       <c r="AA690" s="15"/>
     </row>
-    <row r="691">
+    <row r="691" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y691" s="15"/>
       <c r="AA691" s="15"/>
     </row>
-    <row r="692">
+    <row r="692" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y692" s="15"/>
       <c r="AA692" s="15"/>
     </row>
-    <row r="693">
+    <row r="693" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y693" s="15"/>
       <c r="AA693" s="15"/>
     </row>
-    <row r="694">
+    <row r="694" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y694" s="15"/>
       <c r="AA694" s="15"/>
     </row>
-    <row r="695">
+    <row r="695" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y695" s="15"/>
       <c r="AA695" s="15"/>
     </row>
-    <row r="696">
+    <row r="696" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y696" s="15"/>
       <c r="AA696" s="15"/>
     </row>
-    <row r="697">
+    <row r="697" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y697" s="15"/>
       <c r="AA697" s="15"/>
     </row>
-    <row r="698">
+    <row r="698" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y698" s="15"/>
       <c r="AA698" s="15"/>
     </row>
-    <row r="699">
+    <row r="699" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y699" s="15"/>
       <c r="AA699" s="15"/>
     </row>
-    <row r="700">
+    <row r="700" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y700" s="15"/>
       <c r="AA700" s="15"/>
     </row>
-    <row r="701">
+    <row r="701" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y701" s="15"/>
       <c r="AA701" s="15"/>
     </row>
-    <row r="702">
+    <row r="702" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y702" s="15"/>
       <c r="AA702" s="15"/>
     </row>
-    <row r="703">
+    <row r="703" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y703" s="15"/>
       <c r="AA703" s="15"/>
     </row>
-    <row r="704">
+    <row r="704" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y704" s="15"/>
       <c r="AA704" s="15"/>
     </row>
-    <row r="705">
+    <row r="705" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y705" s="15"/>
       <c r="AA705" s="15"/>
     </row>
-    <row r="706">
+    <row r="706" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y706" s="15"/>
       <c r="AA706" s="15"/>
     </row>
-    <row r="707">
+    <row r="707" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y707" s="15"/>
       <c r="AA707" s="15"/>
     </row>
-    <row r="708">
+    <row r="708" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y708" s="15"/>
       <c r="AA708" s="15"/>
     </row>
-    <row r="709">
+    <row r="709" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y709" s="15"/>
       <c r="AA709" s="15"/>
     </row>
-    <row r="710">
+    <row r="710" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y710" s="15"/>
       <c r="AA710" s="15"/>
     </row>
-    <row r="711">
+    <row r="711" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y711" s="15"/>
       <c r="AA711" s="15"/>
     </row>
-    <row r="712">
+    <row r="712" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y712" s="15"/>
       <c r="AA712" s="15"/>
     </row>
-    <row r="713">
+    <row r="713" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y713" s="15"/>
       <c r="AA713" s="15"/>
     </row>
-    <row r="714">
+    <row r="714" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y714" s="15"/>
       <c r="AA714" s="15"/>
     </row>
-    <row r="715">
+    <row r="715" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y715" s="15"/>
       <c r="AA715" s="15"/>
     </row>
-    <row r="716">
+    <row r="716" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y716" s="15"/>
       <c r="AA716" s="15"/>
     </row>
-    <row r="717">
+    <row r="717" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y717" s="15"/>
       <c r="AA717" s="15"/>
     </row>
-    <row r="718">
+    <row r="718" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y718" s="15"/>
       <c r="AA718" s="15"/>
     </row>
-    <row r="719">
+    <row r="719" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y719" s="15"/>
       <c r="AA719" s="15"/>
     </row>
-    <row r="720">
+    <row r="720" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y720" s="15"/>
       <c r="AA720" s="15"/>
     </row>
-    <row r="721">
+    <row r="721" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y721" s="15"/>
       <c r="AA721" s="15"/>
     </row>
-    <row r="722">
+    <row r="722" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y722" s="15"/>
       <c r="AA722" s="15"/>
     </row>
-    <row r="723">
+    <row r="723" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y723" s="15"/>
       <c r="AA723" s="15"/>
     </row>
-    <row r="724">
+    <row r="724" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y724" s="15"/>
       <c r="AA724" s="15"/>
     </row>
-    <row r="725">
+    <row r="725" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y725" s="15"/>
       <c r="AA725" s="15"/>
     </row>
-    <row r="726">
+    <row r="726" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y726" s="15"/>
       <c r="AA726" s="15"/>
     </row>
-    <row r="727">
+    <row r="727" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y727" s="15"/>
       <c r="AA727" s="15"/>
     </row>
-    <row r="728">
+    <row r="728" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y728" s="15"/>
       <c r="AA728" s="15"/>
     </row>
-    <row r="729">
+    <row r="729" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y729" s="15"/>
       <c r="AA729" s="15"/>
     </row>
-    <row r="730">
+    <row r="730" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y730" s="15"/>
       <c r="AA730" s="15"/>
     </row>
-    <row r="731">
+    <row r="731" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y731" s="15"/>
       <c r="AA731" s="15"/>
     </row>
-    <row r="732">
+    <row r="732" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y732" s="15"/>
       <c r="AA732" s="15"/>
     </row>
-    <row r="733">
+    <row r="733" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y733" s="15"/>
       <c r="AA733" s="15"/>
     </row>
-    <row r="734">
+    <row r="734" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y734" s="15"/>
       <c r="AA734" s="15"/>
     </row>
-    <row r="735">
+    <row r="735" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y735" s="15"/>
       <c r="AA735" s="15"/>
     </row>
-    <row r="736">
+    <row r="736" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y736" s="15"/>
       <c r="AA736" s="15"/>
     </row>
-    <row r="737">
+    <row r="737" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y737" s="15"/>
       <c r="AA737" s="15"/>
     </row>
-    <row r="738">
+    <row r="738" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y738" s="15"/>
       <c r="AA738" s="15"/>
     </row>
-    <row r="739">
+    <row r="739" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y739" s="15"/>
       <c r="AA739" s="15"/>
     </row>
-    <row r="740">
+    <row r="740" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y740" s="15"/>
       <c r="AA740" s="15"/>
     </row>
-    <row r="741">
+    <row r="741" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y741" s="15"/>
       <c r="AA741" s="15"/>
     </row>
-    <row r="742">
+    <row r="742" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y742" s="15"/>
       <c r="AA742" s="15"/>
     </row>
-    <row r="743">
+    <row r="743" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y743" s="15"/>
       <c r="AA743" s="15"/>
     </row>
-    <row r="744">
+    <row r="744" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y744" s="15"/>
       <c r="AA744" s="15"/>
     </row>
-    <row r="745">
+    <row r="745" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y745" s="15"/>
       <c r="AA745" s="15"/>
     </row>
-    <row r="746">
+    <row r="746" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y746" s="15"/>
       <c r="AA746" s="15"/>
     </row>
-    <row r="747">
+    <row r="747" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y747" s="15"/>
       <c r="AA747" s="15"/>
     </row>
-    <row r="748">
+    <row r="748" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y748" s="15"/>
       <c r="AA748" s="15"/>
     </row>
-    <row r="749">
+    <row r="749" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y749" s="15"/>
       <c r="AA749" s="15"/>
     </row>
-    <row r="750">
+    <row r="750" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y750" s="15"/>
       <c r="AA750" s="15"/>
     </row>
-    <row r="751">
+    <row r="751" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y751" s="15"/>
       <c r="AA751" s="15"/>
     </row>
-    <row r="752">
+    <row r="752" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y752" s="15"/>
       <c r="AA752" s="15"/>
     </row>
-    <row r="753">
+    <row r="753" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y753" s="15"/>
       <c r="AA753" s="15"/>
     </row>
-    <row r="754">
+    <row r="754" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y754" s="15"/>
       <c r="AA754" s="15"/>
     </row>
-    <row r="755">
+    <row r="755" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y755" s="15"/>
       <c r="AA755" s="15"/>
     </row>
-    <row r="756">
+    <row r="756" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y756" s="15"/>
       <c r="AA756" s="15"/>
     </row>
-    <row r="757">
+    <row r="757" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y757" s="15"/>
       <c r="AA757" s="15"/>
     </row>
-    <row r="758">
+    <row r="758" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y758" s="15"/>
       <c r="AA758" s="15"/>
     </row>
-    <row r="759">
+    <row r="759" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y759" s="15"/>
       <c r="AA759" s="15"/>
     </row>
-    <row r="760">
+    <row r="760" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y760" s="15"/>
       <c r="AA760" s="15"/>
     </row>
-    <row r="761">
+    <row r="761" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y761" s="15"/>
       <c r="AA761" s="15"/>
     </row>
-    <row r="762">
+    <row r="762" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y762" s="15"/>
       <c r="AA762" s="15"/>
     </row>
-    <row r="763">
+    <row r="763" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y763" s="15"/>
       <c r="AA763" s="15"/>
     </row>
-    <row r="764">
+    <row r="764" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y764" s="15"/>
       <c r="AA764" s="15"/>
     </row>
-    <row r="765">
+    <row r="765" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y765" s="15"/>
       <c r="AA765" s="15"/>
     </row>
-    <row r="766">
+    <row r="766" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y766" s="15"/>
       <c r="AA766" s="15"/>
     </row>
-    <row r="767">
+    <row r="767" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y767" s="15"/>
       <c r="AA767" s="15"/>
     </row>
-    <row r="768">
+    <row r="768" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y768" s="15"/>
       <c r="AA768" s="15"/>
     </row>
-    <row r="769">
+    <row r="769" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y769" s="15"/>
       <c r="AA769" s="15"/>
     </row>
-    <row r="770">
+    <row r="770" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y770" s="15"/>
       <c r="AA770" s="15"/>
     </row>
-    <row r="771">
+    <row r="771" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y771" s="15"/>
       <c r="AA771" s="15"/>
     </row>
-    <row r="772">
+    <row r="772" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y772" s="15"/>
       <c r="AA772" s="15"/>
     </row>
-    <row r="773">
+    <row r="773" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y773" s="15"/>
       <c r="AA773" s="15"/>
     </row>
-    <row r="774">
+    <row r="774" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y774" s="15"/>
       <c r="AA774" s="15"/>
     </row>
-    <row r="775">
+    <row r="775" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y775" s="15"/>
       <c r="AA775" s="15"/>
     </row>
-    <row r="776">
+    <row r="776" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y776" s="15"/>
       <c r="AA776" s="15"/>
     </row>
-    <row r="777">
+    <row r="777" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y777" s="15"/>
       <c r="AA777" s="15"/>
     </row>
-    <row r="778">
+    <row r="778" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y778" s="15"/>
       <c r="AA778" s="15"/>
     </row>
-    <row r="779">
+    <row r="779" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y779" s="15"/>
       <c r="AA779" s="15"/>
     </row>
-    <row r="780">
+    <row r="780" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y780" s="15"/>
       <c r="AA780" s="15"/>
     </row>
-    <row r="781">
+    <row r="781" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y781" s="15"/>
       <c r="AA781" s="15"/>
     </row>
-    <row r="782">
+    <row r="782" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y782" s="15"/>
       <c r="AA782" s="15"/>
     </row>
-    <row r="783">
+    <row r="783" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y783" s="15"/>
       <c r="AA783" s="15"/>
     </row>
-    <row r="784">
+    <row r="784" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y784" s="15"/>
       <c r="AA784" s="15"/>
     </row>
-    <row r="785">
+    <row r="785" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y785" s="15"/>
       <c r="AA785" s="15"/>
     </row>
-    <row r="786">
+    <row r="786" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y786" s="15"/>
       <c r="AA786" s="15"/>
     </row>
-    <row r="787">
+    <row r="787" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y787" s="15"/>
       <c r="AA787" s="15"/>
     </row>
-    <row r="788">
+    <row r="788" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y788" s="15"/>
       <c r="AA788" s="15"/>
     </row>
-    <row r="789">
+    <row r="789" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y789" s="15"/>
       <c r="AA789" s="15"/>
     </row>
-    <row r="790">
+    <row r="790" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y790" s="15"/>
       <c r="AA790" s="15"/>
     </row>
-    <row r="791">
+    <row r="791" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y791" s="15"/>
       <c r="AA791" s="15"/>
     </row>
-    <row r="792">
+    <row r="792" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y792" s="15"/>
       <c r="AA792" s="15"/>
     </row>
-    <row r="793">
+    <row r="793" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y793" s="15"/>
       <c r="AA793" s="15"/>
     </row>
-    <row r="794">
+    <row r="794" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y794" s="15"/>
       <c r="AA794" s="15"/>
     </row>
-    <row r="795">
+    <row r="795" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y795" s="15"/>
       <c r="AA795" s="15"/>
     </row>
-    <row r="796">
+    <row r="796" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y796" s="15"/>
       <c r="AA796" s="15"/>
     </row>
-    <row r="797">
+    <row r="797" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y797" s="15"/>
       <c r="AA797" s="15"/>
     </row>
-    <row r="798">
+    <row r="798" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y798" s="15"/>
       <c r="AA798" s="15"/>
     </row>
-    <row r="799">
+    <row r="799" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y799" s="15"/>
       <c r="AA799" s="15"/>
     </row>
-    <row r="800">
+    <row r="800" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y800" s="15"/>
       <c r="AA800" s="15"/>
     </row>
-    <row r="801">
+    <row r="801" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y801" s="15"/>
       <c r="AA801" s="15"/>
     </row>
-    <row r="802">
+    <row r="802" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y802" s="15"/>
       <c r="AA802" s="15"/>
     </row>
-    <row r="803">
+    <row r="803" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y803" s="15"/>
       <c r="AA803" s="15"/>
     </row>
-    <row r="804">
+    <row r="804" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y804" s="15"/>
       <c r="AA804" s="15"/>
     </row>
-    <row r="805">
+    <row r="805" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y805" s="15"/>
       <c r="AA805" s="15"/>
     </row>
-    <row r="806">
+    <row r="806" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y806" s="15"/>
       <c r="AA806" s="15"/>
     </row>
-    <row r="807">
+    <row r="807" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y807" s="15"/>
       <c r="AA807" s="15"/>
     </row>
-    <row r="808">
+    <row r="808" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y808" s="15"/>
       <c r="AA808" s="15"/>
     </row>
-    <row r="809">
+    <row r="809" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y809" s="15"/>
       <c r="AA809" s="15"/>
     </row>
-    <row r="810">
+    <row r="810" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y810" s="15"/>
       <c r="AA810" s="15"/>
     </row>
-    <row r="811">
+    <row r="811" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y811" s="15"/>
       <c r="AA811" s="15"/>
     </row>
-    <row r="812">
+    <row r="812" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y812" s="15"/>
       <c r="AA812" s="15"/>
     </row>
-    <row r="813">
+    <row r="813" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y813" s="15"/>
       <c r="AA813" s="15"/>
     </row>
-    <row r="814">
+    <row r="814" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y814" s="15"/>
       <c r="AA814" s="15"/>
     </row>
-    <row r="815">
+    <row r="815" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y815" s="15"/>
       <c r="AA815" s="15"/>
     </row>
-    <row r="816">
+    <row r="816" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y816" s="15"/>
       <c r="AA816" s="15"/>
     </row>
-    <row r="817">
+    <row r="817" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y817" s="15"/>
       <c r="AA817" s="15"/>
     </row>
-    <row r="818">
+    <row r="818" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y818" s="15"/>
       <c r="AA818" s="15"/>
     </row>
-    <row r="819">
+    <row r="819" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y819" s="15"/>
       <c r="AA819" s="15"/>
     </row>
-    <row r="820">
+    <row r="820" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y820" s="15"/>
       <c r="AA820" s="15"/>
     </row>
-    <row r="821">
+    <row r="821" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y821" s="15"/>
       <c r="AA821" s="15"/>
     </row>
-    <row r="822">
+    <row r="822" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y822" s="15"/>
       <c r="AA822" s="15"/>
     </row>
-    <row r="823">
+    <row r="823" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y823" s="15"/>
       <c r="AA823" s="15"/>
     </row>
-    <row r="824">
+    <row r="824" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y824" s="15"/>
       <c r="AA824" s="15"/>
     </row>
-    <row r="825">
+    <row r="825" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y825" s="15"/>
       <c r="AA825" s="15"/>
     </row>
-    <row r="826">
+    <row r="826" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y826" s="15"/>
       <c r="AA826" s="15"/>
     </row>
-    <row r="827">
+    <row r="827" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y827" s="15"/>
       <c r="AA827" s="15"/>
     </row>
-    <row r="828">
+    <row r="828" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y828" s="15"/>
       <c r="AA828" s="15"/>
     </row>
-    <row r="829">
+    <row r="829" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y829" s="15"/>
       <c r="AA829" s="15"/>
     </row>
-    <row r="830">
+    <row r="830" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y830" s="15"/>
       <c r="AA830" s="15"/>
     </row>
-    <row r="831">
+    <row r="831" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y831" s="15"/>
       <c r="AA831" s="15"/>
     </row>
-    <row r="832">
+    <row r="832" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y832" s="15"/>
       <c r="AA832" s="15"/>
     </row>
-    <row r="833">
+    <row r="833" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y833" s="15"/>
       <c r="AA833" s="15"/>
     </row>
-    <row r="834">
+    <row r="834" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y834" s="15"/>
       <c r="AA834" s="15"/>
     </row>
-    <row r="835">
+    <row r="835" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y835" s="15"/>
       <c r="AA835" s="15"/>
     </row>
-    <row r="836">
+    <row r="836" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y836" s="15"/>
       <c r="AA836" s="15"/>
     </row>
-    <row r="837">
+    <row r="837" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y837" s="15"/>
       <c r="AA837" s="15"/>
     </row>
-    <row r="838">
+    <row r="838" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y838" s="15"/>
       <c r="AA838" s="15"/>
     </row>
-    <row r="839">
+    <row r="839" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y839" s="15"/>
       <c r="AA839" s="15"/>
     </row>
-    <row r="840">
+    <row r="840" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y840" s="15"/>
       <c r="AA840" s="15"/>
     </row>
-    <row r="841">
+    <row r="841" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y841" s="15"/>
       <c r="AA841" s="15"/>
     </row>
-    <row r="842">
+    <row r="842" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y842" s="15"/>
       <c r="AA842" s="15"/>
     </row>
-    <row r="843">
+    <row r="843" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y843" s="15"/>
       <c r="AA843" s="15"/>
     </row>
-    <row r="844">
+    <row r="844" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y844" s="15"/>
       <c r="AA844" s="15"/>
     </row>
-    <row r="845">
+    <row r="845" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y845" s="15"/>
       <c r="AA845" s="15"/>
     </row>
-    <row r="846">
+    <row r="846" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y846" s="15"/>
       <c r="AA846" s="15"/>
     </row>
-    <row r="847">
+    <row r="847" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y847" s="15"/>
       <c r="AA847" s="15"/>
     </row>
-    <row r="848">
+    <row r="848" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y848" s="15"/>
       <c r="AA848" s="15"/>
     </row>
-    <row r="849">
+    <row r="849" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y849" s="15"/>
       <c r="AA849" s="15"/>
     </row>
-    <row r="850">
+    <row r="850" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y850" s="15"/>
       <c r="AA850" s="15"/>
     </row>
-    <row r="851">
+    <row r="851" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y851" s="15"/>
       <c r="AA851" s="15"/>
     </row>
-    <row r="852">
+    <row r="852" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y852" s="15"/>
       <c r="AA852" s="15"/>
     </row>
-    <row r="853">
+    <row r="853" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y853" s="15"/>
       <c r="AA853" s="15"/>
     </row>
-    <row r="854">
+    <row r="854" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y854" s="15"/>
       <c r="AA854" s="15"/>
     </row>
-    <row r="855">
+    <row r="855" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y855" s="15"/>
       <c r="AA855" s="15"/>
     </row>
-    <row r="856">
+    <row r="856" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y856" s="15"/>
       <c r="AA856" s="15"/>
     </row>
-    <row r="857">
+    <row r="857" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y857" s="15"/>
       <c r="AA857" s="15"/>
     </row>
-    <row r="858">
+    <row r="858" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y858" s="15"/>
       <c r="AA858" s="15"/>
     </row>
-    <row r="859">
+    <row r="859" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y859" s="15"/>
       <c r="AA859" s="15"/>
     </row>
-    <row r="860">
+    <row r="860" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y860" s="15"/>
       <c r="AA860" s="15"/>
     </row>
-    <row r="861">
+    <row r="861" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y861" s="15"/>
       <c r="AA861" s="15"/>
     </row>
-    <row r="862">
+    <row r="862" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y862" s="15"/>
       <c r="AA862" s="15"/>
     </row>
-    <row r="863">
+    <row r="863" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y863" s="15"/>
       <c r="AA863" s="15"/>
     </row>
-    <row r="864">
+    <row r="864" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y864" s="15"/>
       <c r="AA864" s="15"/>
     </row>
-    <row r="865">
+    <row r="865" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y865" s="15"/>
       <c r="AA865" s="15"/>
     </row>
-    <row r="866">
+    <row r="866" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y866" s="15"/>
       <c r="AA866" s="15"/>
     </row>
-    <row r="867">
+    <row r="867" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y867" s="15"/>
       <c r="AA867" s="15"/>
     </row>
-    <row r="868">
+    <row r="868" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y868" s="15"/>
       <c r="AA868" s="15"/>
     </row>
-    <row r="869">
+    <row r="869" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y869" s="15"/>
       <c r="AA869" s="15"/>
     </row>
-    <row r="870">
+    <row r="870" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y870" s="15"/>
       <c r="AA870" s="15"/>
     </row>
-    <row r="871">
+    <row r="871" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y871" s="15"/>
       <c r="AA871" s="15"/>
     </row>
-    <row r="872">
+    <row r="872" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y872" s="15"/>
       <c r="AA872" s="15"/>
     </row>
-    <row r="873">
+    <row r="873" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y873" s="15"/>
       <c r="AA873" s="15"/>
     </row>
-    <row r="874">
+    <row r="874" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y874" s="15"/>
       <c r="AA874" s="15"/>
     </row>
-    <row r="875">
+    <row r="875" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y875" s="15"/>
       <c r="AA875" s="15"/>
     </row>
-    <row r="876">
+    <row r="876" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y876" s="15"/>
       <c r="AA876" s="15"/>
     </row>
-    <row r="877">
+    <row r="877" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y877" s="15"/>
       <c r="AA877" s="15"/>
     </row>
-    <row r="878">
+    <row r="878" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y878" s="15"/>
       <c r="AA878" s="15"/>
     </row>
-    <row r="879">
+    <row r="879" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y879" s="15"/>
       <c r="AA879" s="15"/>
     </row>
-    <row r="880">
+    <row r="880" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y880" s="15"/>
       <c r="AA880" s="15"/>
     </row>
-    <row r="881">
+    <row r="881" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y881" s="15"/>
       <c r="AA881" s="15"/>
     </row>
-    <row r="882">
+    <row r="882" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y882" s="15"/>
       <c r="AA882" s="15"/>
     </row>
-    <row r="883">
+    <row r="883" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y883" s="15"/>
       <c r="AA883" s="15"/>
     </row>
-    <row r="884">
+    <row r="884" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y884" s="15"/>
       <c r="AA884" s="15"/>
     </row>
-    <row r="885">
+    <row r="885" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y885" s="15"/>
       <c r="AA885" s="15"/>
     </row>
-    <row r="886">
+    <row r="886" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y886" s="15"/>
       <c r="AA886" s="15"/>
     </row>
-    <row r="887">
+    <row r="887" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y887" s="15"/>
       <c r="AA887" s="15"/>
     </row>
-    <row r="888">
+    <row r="888" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y888" s="15"/>
       <c r="AA888" s="15"/>
     </row>
-    <row r="889">
+    <row r="889" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y889" s="15"/>
       <c r="AA889" s="15"/>
     </row>
-    <row r="890">
+    <row r="890" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y890" s="15"/>
       <c r="AA890" s="15"/>
     </row>
-    <row r="891">
+    <row r="891" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y891" s="15"/>
       <c r="AA891" s="15"/>
     </row>
-    <row r="892">
+    <row r="892" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y892" s="15"/>
       <c r="AA892" s="15"/>
     </row>
-    <row r="893">
+    <row r="893" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y893" s="15"/>
       <c r="AA893" s="15"/>
     </row>
-    <row r="894">
+    <row r="894" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y894" s="15"/>
       <c r="AA894" s="15"/>
     </row>
-    <row r="895">
+    <row r="895" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y895" s="15"/>
       <c r="AA895" s="15"/>
     </row>
-    <row r="896">
+    <row r="896" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y896" s="15"/>
       <c r="AA896" s="15"/>
     </row>
-    <row r="897">
+    <row r="897" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y897" s="15"/>
       <c r="AA897" s="15"/>
     </row>
-    <row r="898">
+    <row r="898" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y898" s="15"/>
       <c r="AA898" s="15"/>
     </row>
-    <row r="899">
+    <row r="899" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y899" s="15"/>
       <c r="AA899" s="15"/>
     </row>
-    <row r="900">
+    <row r="900" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y900" s="15"/>
       <c r="AA900" s="15"/>
     </row>
-    <row r="901">
+    <row r="901" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y901" s="15"/>
       <c r="AA901" s="15"/>
     </row>
-    <row r="902">
+    <row r="902" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y902" s="15"/>
       <c r="AA902" s="15"/>
     </row>
-    <row r="903">
+    <row r="903" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y903" s="15"/>
       <c r="AA903" s="15"/>
     </row>
-    <row r="904">
+    <row r="904" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y904" s="15"/>
       <c r="AA904" s="15"/>
     </row>
-    <row r="905">
+    <row r="905" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y905" s="15"/>
       <c r="AA905" s="15"/>
     </row>
-    <row r="906">
+    <row r="906" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y906" s="15"/>
       <c r="AA906" s="15"/>
     </row>
-    <row r="907">
+    <row r="907" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y907" s="15"/>
       <c r="AA907" s="15"/>
     </row>
-    <row r="908">
+    <row r="908" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y908" s="15"/>
       <c r="AA908" s="15"/>
     </row>
-    <row r="909">
+    <row r="909" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y909" s="15"/>
       <c r="AA909" s="15"/>
     </row>
-    <row r="910">
+    <row r="910" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y910" s="15"/>
       <c r="AA910" s="15"/>
     </row>
-    <row r="911">
+    <row r="911" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y911" s="15"/>
       <c r="AA911" s="15"/>
     </row>
-    <row r="912">
+    <row r="912" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y912" s="15"/>
       <c r="AA912" s="15"/>
     </row>
-    <row r="913">
+    <row r="913" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y913" s="15"/>
       <c r="AA913" s="15"/>
     </row>
-    <row r="914">
+    <row r="914" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y914" s="15"/>
       <c r="AA914" s="15"/>
     </row>
-    <row r="915">
+    <row r="915" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y915" s="15"/>
       <c r="AA915" s="15"/>
     </row>
-    <row r="916">
+    <row r="916" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y916" s="15"/>
       <c r="AA916" s="15"/>
     </row>
-    <row r="917">
+    <row r="917" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y917" s="15"/>
       <c r="AA917" s="15"/>
     </row>
-    <row r="918">
+    <row r="918" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y918" s="15"/>
       <c r="AA918" s="15"/>
     </row>
-    <row r="919">
+    <row r="919" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y919" s="15"/>
       <c r="AA919" s="15"/>
     </row>
-    <row r="920">
+    <row r="920" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y920" s="15"/>
       <c r="AA920" s="15"/>
     </row>
-    <row r="921">
+    <row r="921" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y921" s="15"/>
       <c r="AA921" s="15"/>
     </row>
-    <row r="922">
+    <row r="922" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y922" s="15"/>
       <c r="AA922" s="15"/>
     </row>
-    <row r="923">
+    <row r="923" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y923" s="15"/>
       <c r="AA923" s="15"/>
     </row>
-    <row r="924">
+    <row r="924" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y924" s="15"/>
       <c r="AA924" s="15"/>
     </row>
-    <row r="925">
+    <row r="925" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y925" s="15"/>
       <c r="AA925" s="15"/>
     </row>
-    <row r="926">
+    <row r="926" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y926" s="15"/>
       <c r="AA926" s="15"/>
     </row>
-    <row r="927">
+    <row r="927" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y927" s="15"/>
       <c r="AA927" s="15"/>
     </row>
-    <row r="928">
+    <row r="928" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y928" s="15"/>
       <c r="AA928" s="15"/>
     </row>
-    <row r="929">
+    <row r="929" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y929" s="15"/>
       <c r="AA929" s="15"/>
     </row>
-    <row r="930">
+    <row r="930" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y930" s="15"/>
       <c r="AA930" s="15"/>
     </row>
-    <row r="931">
+    <row r="931" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y931" s="15"/>
       <c r="AA931" s="15"/>
     </row>
-    <row r="932">
+    <row r="932" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y932" s="15"/>
       <c r="AA932" s="15"/>
     </row>
-    <row r="933">
+    <row r="933" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y933" s="15"/>
       <c r="AA933" s="15"/>
     </row>
-    <row r="934">
+    <row r="934" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y934" s="15"/>
       <c r="AA934" s="15"/>
     </row>
-    <row r="935">
+    <row r="935" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y935" s="15"/>
       <c r="AA935" s="15"/>
     </row>
-    <row r="936">
+    <row r="936" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y936" s="15"/>
       <c r="AA936" s="15"/>
     </row>
-    <row r="937">
+    <row r="937" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y937" s="15"/>
       <c r="AA937" s="15"/>
     </row>
-    <row r="938">
+    <row r="938" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y938" s="15"/>
       <c r="AA938" s="15"/>
     </row>
-    <row r="939">
+    <row r="939" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y939" s="15"/>
       <c r="AA939" s="15"/>
     </row>
-    <row r="940">
+    <row r="940" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y940" s="15"/>
       <c r="AA940" s="15"/>
     </row>
-    <row r="941">
+    <row r="941" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y941" s="15"/>
       <c r="AA941" s="15"/>
     </row>
-    <row r="942">
+    <row r="942" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y942" s="15"/>
       <c r="AA942" s="15"/>
     </row>
-    <row r="943">
+    <row r="943" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y943" s="15"/>
       <c r="AA943" s="15"/>
     </row>
-    <row r="944">
+    <row r="944" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y944" s="15"/>
       <c r="AA944" s="15"/>
     </row>
-    <row r="945">
+    <row r="945" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y945" s="15"/>
       <c r="AA945" s="15"/>
     </row>
-    <row r="946">
+    <row r="946" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y946" s="15"/>
       <c r="AA946" s="15"/>
     </row>
-    <row r="947">
+    <row r="947" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y947" s="15"/>
       <c r="AA947" s="15"/>
     </row>
-    <row r="948">
+    <row r="948" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y948" s="15"/>
       <c r="AA948" s="15"/>
     </row>
-    <row r="949">
+    <row r="949" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y949" s="15"/>
       <c r="AA949" s="15"/>
     </row>
-    <row r="950">
+    <row r="950" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y950" s="15"/>
       <c r="AA950" s="15"/>
     </row>
-    <row r="951">
+    <row r="951" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y951" s="15"/>
       <c r="AA951" s="15"/>
     </row>
-    <row r="952">
+    <row r="952" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y952" s="15"/>
       <c r="AA952" s="15"/>
     </row>
-    <row r="953">
+    <row r="953" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y953" s="15"/>
       <c r="AA953" s="15"/>
     </row>
-    <row r="954">
+    <row r="954" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y954" s="15"/>
       <c r="AA954" s="15"/>
     </row>
-    <row r="955">
+    <row r="955" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y955" s="15"/>
       <c r="AA955" s="15"/>
     </row>
-    <row r="956">
+    <row r="956" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y956" s="15"/>
       <c r="AA956" s="15"/>
     </row>
-    <row r="957">
+    <row r="957" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y957" s="15"/>
       <c r="AA957" s="15"/>
     </row>
-    <row r="958">
+    <row r="958" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y958" s="15"/>
       <c r="AA958" s="15"/>
     </row>
-    <row r="959">
+    <row r="959" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y959" s="15"/>
       <c r="AA959" s="15"/>
     </row>
-    <row r="960">
+    <row r="960" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y960" s="15"/>
       <c r="AA960" s="15"/>
     </row>
-    <row r="961">
+    <row r="961" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y961" s="15"/>
       <c r="AA961" s="15"/>
     </row>
-    <row r="962">
+    <row r="962" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y962" s="15"/>
       <c r="AA962" s="15"/>
     </row>
-    <row r="963">
+    <row r="963" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y963" s="15"/>
       <c r="AA963" s="15"/>
     </row>
-    <row r="964">
+    <row r="964" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y964" s="15"/>
       <c r="AA964" s="15"/>
     </row>
-    <row r="965">
+    <row r="965" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y965" s="15"/>
       <c r="AA965" s="15"/>
     </row>
-    <row r="966">
+    <row r="966" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y966" s="15"/>
       <c r="AA966" s="15"/>
     </row>
-    <row r="967">
+    <row r="967" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y967" s="15"/>
       <c r="AA967" s="15"/>
     </row>
-    <row r="968">
+    <row r="968" spans="25:27" ht="13" x14ac:dyDescent="0.15">
       <c r="Y968" s="15"/>
       <c r="AA968" s="15"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.57"/>
-    <col customWidth="1" min="2" max="2" width="19.57"/>
-    <col customWidth="1" min="3" max="3" width="34.86"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1SqUJIwvswVa2-8W_ijJBIO2NE9AR7FI1Q9DT15vWlZE/edit?usp=sharing","GENERAL NOTE: please refer to the upload instructions for the most up to date version")</f>
         <v>GENERAL NOTE: please refer to the upload instructions for the most up to date version</v>
@@ -6882,14 +7282,14 @@
       <c r="D1" s="5"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -6903,7 +7303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6917,7 +7317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6931,7 +7331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -6945,7 +7345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -6959,7 +7359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -6973,7 +7373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -6987,7 +7387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -7001,7 +7401,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -7015,7 +7415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -7029,7 +7429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -7043,7 +7443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7057,7 +7457,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -7071,7 +7471,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -7085,7 +7485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -7099,7 +7499,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -7113,7 +7513,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -7127,7 +7527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -7141,7 +7541,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -7155,7 +7555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7169,7 +7569,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>117</v>
       </c>
@@ -7177,13 +7577,13 @@
         <v>88</v>
       </c>
       <c r="C23" s="13">
-        <v>42745.0</v>
+        <v>42745</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
@@ -7197,7 +7597,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -7211,7 +7611,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -7225,7 +7625,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -7233,13 +7633,13 @@
         <v>88</v>
       </c>
       <c r="C27" s="13">
-        <v>42755.0</v>
+        <v>42755</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -7253,7 +7653,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -7261,13 +7661,13 @@
         <v>88</v>
       </c>
       <c r="C29" s="13">
-        <v>42755.0</v>
+        <v>42755</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -7281,7 +7681,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -7295,7 +7695,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -7309,7 +7709,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -7323,7 +7723,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -7337,7 +7737,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -7351,7 +7751,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -7365,7 +7765,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -7379,7 +7779,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -7393,7 +7793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -7407,7 +7807,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -7421,7 +7821,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -7435,7 +7835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -7449,7 +7849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -7463,7 +7863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -7477,7 +7877,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -7491,16 +7891,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="14"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="14"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>